--- a/input/configurations/block_data.xlsx
+++ b/input/configurations/block_data.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF752350-77A2-4EC7-A1CB-A61CFA248F7D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050DF1C-6610-4B9B-AF73-A5C7D8143DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3380" yWindow="3380" windowWidth="28800" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="3570" windowWidth="22935" windowHeight="11190" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="process" sheetId="8" r:id="rId1"/>
+    <sheet name="count" sheetId="8" r:id="rId1"/>
     <sheet name="length" sheetId="2" r:id="rId2"/>
     <sheet name="breadth" sheetId="3" r:id="rId3"/>
     <sheet name="height" sheetId="4" r:id="rId4"/>
@@ -21,13 +21,14 @@
     <sheet name="h1" sheetId="6" r:id="rId6"/>
     <sheet name="h2" sheetId="7" r:id="rId7"/>
     <sheet name="duration" sheetId="1" r:id="rId8"/>
+    <sheet name="sample" sheetId="9" r:id="rId9"/>
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1783" uniqueCount="415">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="439">
   <si>
     <t>coef_0</t>
   </si>
@@ -1248,9 +1249,6 @@
     <t>count</t>
   </si>
   <si>
-    <t>Proportion</t>
-  </si>
-  <si>
     <t>panel_count</t>
   </si>
   <si>
@@ -1275,6 +1273,106 @@
   </si>
   <si>
     <t>max</t>
+  </si>
+  <si>
+    <t>proportion</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>length</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>breadth</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>height</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>process_type</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>weight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload_h1</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>workload_h2</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>duration</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pre_buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>post_buffer</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>대조중조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Final조립</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>BC_S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>평중조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_L</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>PT_R</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL_A</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL_B</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL_D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL_E</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL_F</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>곡중조</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>VL_S</t>
+    <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -1312,7 +1410,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -1335,16 +1433,32 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1651,9 +1765,11 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{13B4766D-CE02-444A-B208-939F15106349}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I4" sqref="I4"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="6.75" style="2" bestFit="1" customWidth="1"/>
@@ -1663,7 +1779,7 @@
     <col min="7" max="7" width="11.5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -1671,22 +1787,22 @@
         <v>405</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>414</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>406</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>407</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>408</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="G1" s="1" t="s">
         <v>409</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>410</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -1709,7 +1825,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -1732,7 +1848,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -1755,7 +1871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -1778,7 +1894,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -1801,7 +1917,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -1824,7 +1940,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -1847,7 +1963,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -1870,7 +1986,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -1893,7 +2009,7 @@
         <v>524</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -1916,7 +2032,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -1939,7 +2055,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -1962,7 +2078,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -1985,7 +2101,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -2008,7 +2124,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -2031,7 +2147,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -2054,7 +2170,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -2077,7 +2193,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -2100,7 +2216,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -2123,7 +2239,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -2146,7 +2262,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -2169,7 +2285,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -2192,7 +2308,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -2215,7 +2331,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -2238,7 +2354,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -2261,7 +2377,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -2284,7 +2400,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -2307,7 +2423,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2446,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -2353,7 +2469,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -2376,7 +2492,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -2399,7 +2515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -2422,7 +2538,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -2445,7 +2561,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -2468,7 +2584,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -2491,7 +2607,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -2514,7 +2630,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -2537,7 +2653,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -2560,7 +2676,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -2583,7 +2699,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -2606,7 +2722,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -2629,7 +2745,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -2652,7 +2768,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -2675,7 +2791,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -2698,7 +2814,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -2736,16 +2852,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2759,13 +2875,13 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -2785,7 +2901,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2805,7 +2921,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2825,7 +2941,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -2845,7 +2961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2865,7 +2981,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -2885,7 +3001,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -2905,7 +3021,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -2925,7 +3041,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -2945,7 +3061,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -2965,7 +3081,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -2985,7 +3101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3005,7 +3121,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -3025,7 +3141,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3045,7 +3161,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -3065,7 +3181,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -3085,7 +3201,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3105,7 +3221,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -3125,7 +3241,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3145,7 +3261,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3165,7 +3281,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3185,7 +3301,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3205,7 +3321,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3225,7 +3341,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3245,7 +3361,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3265,7 +3381,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -3285,7 +3401,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3305,7 +3421,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -3325,7 +3441,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3345,7 +3461,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -3365,7 +3481,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3385,7 +3501,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -3405,7 +3521,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3425,7 +3541,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -3445,7 +3561,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3465,7 +3581,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -3485,7 +3601,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3505,7 +3621,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -3525,7 +3641,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -3545,7 +3661,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3565,7 +3681,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -3585,7 +3701,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -3605,7 +3721,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -3625,7 +3741,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -3645,7 +3761,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -3665,7 +3781,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -3685,7 +3801,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -3705,7 +3821,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -3725,7 +3841,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3745,7 +3861,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -3765,7 +3881,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -3785,7 +3901,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3805,7 +3921,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -3825,7 +3941,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -3845,7 +3961,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -3865,7 +3981,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -3885,7 +4001,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -3905,7 +4021,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -3925,7 +4041,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -3945,7 +4061,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -3965,7 +4081,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -3985,7 +4101,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -4005,7 +4121,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -4025,7 +4141,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -4045,7 +4161,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -4065,7 +4181,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -4085,7 +4201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -4105,7 +4221,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -4125,7 +4241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -4145,7 +4261,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -4165,7 +4281,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -4185,7 +4301,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -4205,7 +4321,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
@@ -4225,7 +4341,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -4245,7 +4361,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>30</v>
       </c>
@@ -4265,7 +4381,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -4285,7 +4401,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -4305,7 +4421,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -4325,7 +4441,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -4345,7 +4461,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -4365,7 +4481,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -4385,7 +4501,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -4405,7 +4521,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -4425,7 +4541,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -4445,7 +4561,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
@@ -4465,7 +4581,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -4485,7 +4601,7 @@
         <v>13.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -4505,7 +4621,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -4525,7 +4641,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -4545,7 +4661,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -4565,7 +4681,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -4585,7 +4701,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>22</v>
       </c>
@@ -4605,7 +4721,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -4625,7 +4741,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -4645,7 +4761,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -4665,7 +4781,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -4685,7 +4801,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -4705,7 +4821,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -4725,7 +4841,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -4745,7 +4861,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -4765,7 +4881,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -4785,7 +4901,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -4805,7 +4921,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>26</v>
       </c>
@@ -4825,7 +4941,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -4845,7 +4961,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>26</v>
       </c>
@@ -4865,7 +4981,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -4885,7 +5001,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
@@ -4905,7 +5021,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -4925,7 +5041,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -4945,7 +5061,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -4965,7 +5081,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -4985,7 +5101,7 @@
         <v>26.5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
@@ -5005,7 +5121,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -5025,7 +5141,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -5045,7 +5161,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -5065,7 +5181,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -5085,7 +5201,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -5105,7 +5221,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -5125,7 +5241,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -5145,7 +5261,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
@@ -5165,7 +5281,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -5185,7 +5301,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -5205,7 +5321,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
@@ -5225,7 +5341,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>40</v>
       </c>
@@ -5245,7 +5361,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
@@ -5265,7 +5381,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -5300,16 +5416,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -5323,13 +5439,13 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -5349,7 +5465,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -5369,7 +5485,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -5389,7 +5505,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -5409,7 +5525,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -5429,7 +5545,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5449,7 +5565,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -5469,7 +5585,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -5489,7 +5605,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -5509,7 +5625,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -5529,7 +5645,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -5549,7 +5665,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -5569,7 +5685,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -5589,7 +5705,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5609,7 +5725,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -5629,7 +5745,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -5649,7 +5765,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -5669,7 +5785,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -5689,7 +5805,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -5709,7 +5825,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -5729,7 +5845,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -5749,7 +5865,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -5769,7 +5885,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -5789,7 +5905,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -5809,7 +5925,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -5829,7 +5945,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -5849,7 +5965,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -5869,7 +5985,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -5889,7 +6005,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -5909,7 +6025,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -5929,7 +6045,7 @@
         <v>25.5</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -5949,7 +6065,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -5969,7 +6085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -5989,7 +6105,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -6009,7 +6125,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -6029,7 +6145,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -6049,7 +6165,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -6069,7 +6185,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -6089,7 +6205,7 @@
         <v>22.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -6109,7 +6225,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -6129,7 +6245,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -6149,7 +6265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -6169,7 +6285,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -6189,7 +6305,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -6209,7 +6325,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -6229,7 +6345,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6249,7 +6365,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -6269,7 +6385,7 @@
         <v>2.5</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -6289,7 +6405,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -6309,7 +6425,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -6329,7 +6445,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -6349,7 +6465,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -6369,7 +6485,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -6389,7 +6505,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -6409,7 +6525,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -6429,7 +6545,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -6449,7 +6565,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -6469,7 +6585,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -6489,7 +6605,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -6509,7 +6625,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -6529,7 +6645,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -6549,7 +6665,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -6569,7 +6685,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -6589,7 +6705,7 @@
         <v>12.5</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -6609,7 +6725,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -6629,7 +6745,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -6649,7 +6765,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -6669,7 +6785,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -6689,7 +6805,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -6709,7 +6825,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -6729,7 +6845,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -6749,7 +6865,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -6769,7 +6885,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
@@ -6789,7 +6905,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6809,7 +6925,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>30</v>
       </c>
@@ -6829,7 +6945,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -6849,7 +6965,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -6869,7 +6985,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -6889,7 +7005,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -6909,7 +7025,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -6929,7 +7045,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -6949,7 +7065,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -6969,7 +7085,7 @@
         <v>21.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -6989,7 +7105,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -7009,7 +7125,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
@@ -7029,7 +7145,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -7049,7 +7165,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -7069,7 +7185,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -7089,7 +7205,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -7109,7 +7225,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -7129,7 +7245,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -7149,7 +7265,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>22</v>
       </c>
@@ -7169,7 +7285,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -7189,7 +7305,7 @@
         <v>19.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -7209,7 +7325,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -7229,7 +7345,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -7249,7 +7365,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -7269,7 +7385,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -7289,7 +7405,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -7309,7 +7425,7 @@
         <v>18.5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -7329,7 +7445,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -7349,7 +7465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -7369,7 +7485,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>26</v>
       </c>
@@ -7389,7 +7505,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -7409,7 +7525,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>26</v>
       </c>
@@ -7429,7 +7545,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -7449,7 +7565,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
@@ -7469,7 +7585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -7489,7 +7605,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -7509,7 +7625,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -7529,7 +7645,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -7549,7 +7665,7 @@
         <v>23.5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
@@ -7569,7 +7685,7 @@
         <v>17.5</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -7589,7 +7705,7 @@
         <v>14.5</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -7609,7 +7725,7 @@
         <v>24.5</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -7629,7 +7745,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -7649,7 +7765,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -7669,7 +7785,7 @@
         <v>15.5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -7689,7 +7805,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -7709,7 +7825,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
@@ -7729,7 +7845,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -7749,7 +7865,7 @@
         <v>16.5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -7769,7 +7885,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
@@ -7789,7 +7905,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>40</v>
       </c>
@@ -7809,7 +7925,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
@@ -7829,7 +7945,7 @@
         <v>20.5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -7864,16 +7980,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.25" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="65.83203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="6" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="65.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="6" width="5.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -7887,13 +8003,13 @@
         <v>52</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -7913,7 +8029,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -7933,7 +8049,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -7953,7 +8069,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -7973,7 +8089,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -7993,7 +8109,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -8013,7 +8129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -8033,7 +8149,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -8053,7 +8169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -8073,7 +8189,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -8093,7 +8209,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -8113,7 +8229,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -8133,7 +8249,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -8153,7 +8269,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -8173,7 +8289,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -8193,7 +8309,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -8213,7 +8329,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -8233,7 +8349,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -8253,7 +8369,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -8273,7 +8389,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -8293,7 +8409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -8313,7 +8429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -8333,7 +8449,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -8353,7 +8469,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -8373,7 +8489,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -8393,7 +8509,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -8413,7 +8529,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -8433,7 +8549,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -8453,7 +8569,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -8473,7 +8589,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -8493,7 +8609,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -8513,7 +8629,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -8533,7 +8649,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -8553,7 +8669,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -8573,7 +8689,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -8593,7 +8709,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -8613,7 +8729,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -8633,7 +8749,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -8653,7 +8769,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -8673,7 +8789,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -8693,7 +8809,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -8713,7 +8829,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -8733,7 +8849,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -8753,7 +8869,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -8773,7 +8889,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -8793,7 +8909,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -8813,7 +8929,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -8833,7 +8949,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -8853,7 +8969,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -8873,7 +8989,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -8893,7 +9009,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -8913,7 +9029,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -8933,7 +9049,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -8953,7 +9069,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -8973,7 +9089,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -8993,7 +9109,7 @@
         <v>10.5</v>
       </c>
     </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -9013,7 +9129,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -9033,7 +9149,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -9053,7 +9169,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -9073,7 +9189,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -9093,7 +9209,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -9113,7 +9229,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -9133,7 +9249,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -9153,7 +9269,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -9173,7 +9289,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -9193,7 +9309,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -9213,7 +9329,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -9233,7 +9349,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -9253,7 +9369,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -9273,7 +9389,7 @@
         <v>6.5</v>
       </c>
     </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -9293,7 +9409,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -9313,7 +9429,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -9333,7 +9449,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
@@ -9353,7 +9469,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -9373,7 +9489,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>30</v>
       </c>
@@ -9393,7 +9509,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -9413,7 +9529,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -9433,7 +9549,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -9453,7 +9569,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -9473,7 +9589,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -9493,7 +9609,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -9513,7 +9629,7 @@
         <v>11.5</v>
       </c>
     </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -9533,7 +9649,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -9553,7 +9669,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -9573,7 +9689,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
@@ -9593,7 +9709,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -9613,7 +9729,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -9633,7 +9749,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -9653,7 +9769,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -9673,7 +9789,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -9693,7 +9809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -9713,7 +9829,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>22</v>
       </c>
@@ -9733,7 +9849,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -9753,7 +9869,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -9773,7 +9889,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -9793,7 +9909,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -9813,7 +9929,7 @@
         <v>5.5</v>
       </c>
     </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -9833,7 +9949,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -9853,7 +9969,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -9873,7 +9989,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -9893,7 +10009,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -9913,7 +10029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -9933,7 +10049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>26</v>
       </c>
@@ -9953,7 +10069,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -9973,7 +10089,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>26</v>
       </c>
@@ -9993,7 +10109,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -10013,7 +10129,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
@@ -10033,7 +10149,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -10053,7 +10169,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -10073,7 +10189,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -10093,7 +10209,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -10113,7 +10229,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
@@ -10133,7 +10249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -10153,7 +10269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -10173,7 +10289,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -10193,7 +10309,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -10213,7 +10329,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -10233,7 +10349,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -10253,7 +10369,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -10273,7 +10389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
@@ -10293,7 +10409,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -10313,7 +10429,7 @@
         <v>4.5</v>
       </c>
     </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -10333,7 +10449,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
@@ -10353,7 +10469,7 @@
         <v>9.5</v>
       </c>
     </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>40</v>
       </c>
@@ -10373,7 +10489,7 @@
         <v>7.5</v>
       </c>
     </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
@@ -10393,7 +10509,7 @@
         <v>8.5</v>
       </c>
     </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.45">
+    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -10428,15 +10544,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -10447,13 +10563,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>410</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>411</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -10470,7 +10586,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -10487,7 +10603,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -10504,7 +10620,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -10521,7 +10637,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -10538,7 +10654,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -10555,7 +10671,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -10572,7 +10688,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -10589,7 +10705,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -10606,7 +10722,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -10623,7 +10739,7 @@
         <v>319</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -10640,7 +10756,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -10657,7 +10773,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>10</v>
       </c>
@@ -10674,7 +10790,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>6</v>
       </c>
@@ -10691,7 +10807,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>9</v>
       </c>
@@ -10708,7 +10824,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>24</v>
       </c>
@@ -10725,7 +10841,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>18</v>
       </c>
@@ -10742,7 +10858,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>29</v>
       </c>
@@ -10759,7 +10875,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>32</v>
       </c>
@@ -10776,7 +10892,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>21</v>
       </c>
@@ -10793,7 +10909,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>17</v>
       </c>
@@ -10810,7 +10926,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>30</v>
       </c>
@@ -10827,7 +10943,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>12</v>
       </c>
@@ -10844,7 +10960,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>14</v>
       </c>
@@ -10861,7 +10977,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>25</v>
       </c>
@@ -10878,7 +10994,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>20</v>
       </c>
@@ -10895,7 +11011,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>43</v>
       </c>
@@ -10912,7 +11028,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>22</v>
       </c>
@@ -10929,7 +11045,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>27</v>
       </c>
@@ -10946,7 +11062,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>42</v>
       </c>
@@ -10963,7 +11079,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>44</v>
       </c>
@@ -10980,7 +11096,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>23</v>
       </c>
@@ -10997,7 +11113,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>26</v>
       </c>
@@ -11014,7 +11130,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>35</v>
       </c>
@@ -11031,7 +11147,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>15</v>
       </c>
@@ -11048,7 +11164,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>28</v>
       </c>
@@ -11065,7 +11181,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>16</v>
       </c>
@@ -11082,7 +11198,7 @@
         <v>322</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>48</v>
       </c>
@@ -11099,7 +11215,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>41</v>
       </c>
@@ -11116,7 +11232,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>47</v>
       </c>
@@ -11133,7 +11249,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>40</v>
       </c>
@@ -11150,7 +11266,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>39</v>
       </c>
@@ -11182,16 +11298,16 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -11208,13 +11324,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -11237,7 +11353,7 @@
         <v>1462</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -11260,7 +11376,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -11283,7 +11399,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -11306,7 +11422,7 @@
         <v>753</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -11329,7 +11445,7 @@
         <v>1562</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -11352,7 +11468,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -11375,7 +11491,7 @@
         <v>1832</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -11398,7 +11514,7 @@
         <v>1213</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -11421,7 +11537,7 @@
         <v>1758</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -11444,7 +11560,7 @@
         <v>1775</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -11467,7 +11583,7 @@
         <v>2126</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -11490,7 +11606,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -11513,7 +11629,7 @@
         <v>1778</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -11536,7 +11652,7 @@
         <v>1523</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -11559,7 +11675,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -11582,7 +11698,7 @@
         <v>1784</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -11605,7 +11721,7 @@
         <v>1973</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -11628,7 +11744,7 @@
         <v>1303</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -11651,7 +11767,7 @@
         <v>1244</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -11674,7 +11790,7 @@
         <v>1100</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -11697,7 +11813,7 @@
         <v>1053</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -11720,7 +11836,7 @@
         <v>995</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -11743,7 +11859,7 @@
         <v>1978</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -11766,7 +11882,7 @@
         <v>1182</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -11789,7 +11905,7 @@
         <v>1336</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -11812,7 +11928,7 @@
         <v>915</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -11835,7 +11951,7 @@
         <v>923</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -11858,7 +11974,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -11881,7 +11997,7 @@
         <v>911</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -11904,7 +12020,7 @@
         <v>1435</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -11927,7 +12043,7 @@
         <v>766</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -11950,7 +12066,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -11973,7 +12089,7 @@
         <v>622</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -11996,7 +12112,7 @@
         <v>1349</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -12019,7 +12135,7 @@
         <v>1291</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -12042,7 +12158,7 @@
         <v>894</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -12065,7 +12181,7 @@
         <v>1743</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -12088,7 +12204,7 @@
         <v>1252</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -12111,7 +12227,7 @@
         <v>1445</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -12134,7 +12250,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -12157,7 +12273,7 @@
         <v>781</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -12180,7 +12296,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -12203,7 +12319,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -12226,7 +12342,7 @@
         <v>1315</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -12264,15 +12380,15 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="12.75" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="4.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="5.1640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="4.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -12283,13 +12399,13 @@
         <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -12306,7 +12422,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -12323,7 +12439,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -12340,7 +12456,7 @@
         <v>884</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -12357,7 +12473,7 @@
         <v>386</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -12374,7 +12490,7 @@
         <v>801</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -12391,7 +12507,7 @@
         <v>1155</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -12408,7 +12524,7 @@
         <v>2238</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -12425,7 +12541,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -12442,7 +12558,7 @@
         <v>4178</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -12459,7 +12575,7 @@
         <v>3107</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -12476,7 +12592,7 @@
         <v>2879</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -12493,7 +12609,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -12510,7 +12626,7 @@
         <v>2336</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -12527,7 +12643,7 @@
         <v>2839</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -12544,7 +12660,7 @@
         <v>900</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -12561,7 +12677,7 @@
         <v>3347</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -12578,7 +12694,7 @@
         <v>1723</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -12595,7 +12711,7 @@
         <v>1492</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -12612,7 +12728,7 @@
         <v>1686</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -12629,7 +12745,7 @@
         <v>773</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -12646,7 +12762,7 @@
         <v>1387</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -12663,7 +12779,7 @@
         <v>888</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -12680,7 +12796,7 @@
         <v>2253</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -12697,7 +12813,7 @@
         <v>2393</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -12714,7 +12830,7 @@
         <v>927</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -12731,7 +12847,7 @@
         <v>1071</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -12748,7 +12864,7 @@
         <v>1602</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -12765,7 +12881,7 @@
         <v>1248</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -12782,7 +12898,7 @@
         <v>974</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -12799,7 +12915,7 @@
         <v>1966</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -12816,7 +12932,7 @@
         <v>785</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -12833,7 +12949,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -12850,7 +12966,7 @@
         <v>784</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -12867,7 +12983,7 @@
         <v>1685</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -12884,7 +13000,7 @@
         <v>1225</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -12901,7 +13017,7 @@
         <v>732</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -12918,7 +13034,7 @@
         <v>3294</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -12935,7 +13051,7 @@
         <v>1952</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -12952,7 +13068,7 @@
         <v>1461</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -12969,7 +13085,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -12986,7 +13102,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -13003,7 +13119,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -13020,7 +13136,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -13037,7 +13153,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -13067,18 +13183,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
-    <col min="2" max="4" width="13.58203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.08203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="4.58203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="13.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="4.625" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="5" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -13095,13 +13213,13 @@
         <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
+        <v>412</v>
+      </c>
+      <c r="G1" s="1" t="s">
         <v>413</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>414</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.45">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -13124,7 +13242,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>37</v>
       </c>
@@ -13147,7 +13265,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>34</v>
       </c>
@@ -13170,7 +13288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>36</v>
       </c>
@@ -13193,7 +13311,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>38</v>
       </c>
@@ -13216,7 +13334,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>11</v>
       </c>
@@ -13239,7 +13357,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>5</v>
       </c>
@@ -13262,7 +13380,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>19</v>
       </c>
@@ -13285,7 +13403,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>4</v>
       </c>
@@ -13308,7 +13426,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>8</v>
       </c>
@@ -13331,7 +13449,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>7</v>
       </c>
@@ -13354,7 +13472,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>31</v>
       </c>
@@ -13377,7 +13495,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>13</v>
       </c>
@@ -13400,7 +13518,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>10</v>
       </c>
@@ -13423,7 +13541,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>33</v>
       </c>
@@ -13446,7 +13564,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>6</v>
       </c>
@@ -13469,7 +13587,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>9</v>
       </c>
@@ -13492,7 +13610,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>24</v>
       </c>
@@ -13515,7 +13633,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>18</v>
       </c>
@@ -13538,7 +13656,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>29</v>
       </c>
@@ -13561,7 +13679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>32</v>
       </c>
@@ -13584,7 +13702,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>21</v>
       </c>
@@ -13607,7 +13725,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>17</v>
       </c>
@@ -13630,7 +13748,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>30</v>
       </c>
@@ -13653,7 +13771,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>12</v>
       </c>
@@ -13676,7 +13794,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>14</v>
       </c>
@@ -13699,7 +13817,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>25</v>
       </c>
@@ -13722,7 +13840,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>20</v>
       </c>
@@ -13745,7 +13863,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>43</v>
       </c>
@@ -13768,7 +13886,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>22</v>
       </c>
@@ -13791,7 +13909,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>27</v>
       </c>
@@ -13814,7 +13932,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>42</v>
       </c>
@@ -13837,7 +13955,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>44</v>
       </c>
@@ -13860,7 +13978,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>23</v>
       </c>
@@ -13883,7 +14001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>26</v>
       </c>
@@ -13906,7 +14024,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>35</v>
       </c>
@@ -13929,7 +14047,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>15</v>
       </c>
@@ -13952,7 +14070,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>28</v>
       </c>
@@ -13975,7 +14093,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>16</v>
       </c>
@@ -13998,7 +14116,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>48</v>
       </c>
@@ -14021,7 +14139,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>41</v>
       </c>
@@ -14044,7 +14162,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>46</v>
       </c>
@@ -14067,7 +14185,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>47</v>
       </c>
@@ -14090,7 +14208,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>40</v>
       </c>
@@ -14113,7 +14231,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>39</v>
       </c>
@@ -14143,4 +14261,2376 @@
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B74112-5BD3-4ED0-B363-BA4B8ED30B88}">
+  <dimension ref="A1:K67"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="7" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="8.625" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="7.375" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.75" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="13.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.25" style="2" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="10.875" style="2" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="12" style="2" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>418</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>416</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>420</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>422</v>
+      </c>
+      <c r="J1" s="3" t="s">
+        <v>423</v>
+      </c>
+      <c r="K1" s="3" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C2" s="2">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2">
+        <v>20</v>
+      </c>
+      <c r="E2" s="2">
+        <v>9</v>
+      </c>
+      <c r="F2" s="2">
+        <v>0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>1462</v>
+      </c>
+      <c r="H2" s="2">
+        <v>791</v>
+      </c>
+      <c r="I2" s="2">
+        <v>8</v>
+      </c>
+      <c r="J2" s="2">
+        <v>5</v>
+      </c>
+      <c r="K2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A3" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C3" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="D3" s="2">
+        <v>18</v>
+      </c>
+      <c r="E3" s="2">
+        <v>9</v>
+      </c>
+      <c r="F3" s="2">
+        <v>193</v>
+      </c>
+      <c r="G3" s="2">
+        <v>749</v>
+      </c>
+      <c r="H3" s="2">
+        <v>367</v>
+      </c>
+      <c r="I3" s="2">
+        <v>8</v>
+      </c>
+      <c r="J3" s="2">
+        <v>5</v>
+      </c>
+      <c r="K3" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A4" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C4" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="D4" s="2">
+        <v>18</v>
+      </c>
+      <c r="E4" s="2">
+        <v>9</v>
+      </c>
+      <c r="F4" s="2">
+        <v>200</v>
+      </c>
+      <c r="G4" s="2">
+        <v>775</v>
+      </c>
+      <c r="H4" s="2">
+        <v>381</v>
+      </c>
+      <c r="I4" s="2">
+        <v>8</v>
+      </c>
+      <c r="J4" s="2">
+        <v>5</v>
+      </c>
+      <c r="K4" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C5" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D5" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E5" s="2">
+        <v>7</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>715</v>
+      </c>
+      <c r="H5" s="2">
+        <v>281</v>
+      </c>
+      <c r="I5" s="2">
+        <v>7</v>
+      </c>
+      <c r="J5" s="2">
+        <v>5</v>
+      </c>
+      <c r="K5" s="2">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C6" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D6" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E6" s="2">
+        <v>7</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>715</v>
+      </c>
+      <c r="H6" s="2">
+        <v>414</v>
+      </c>
+      <c r="I6" s="2">
+        <v>7</v>
+      </c>
+      <c r="J6" s="2">
+        <v>5</v>
+      </c>
+      <c r="K6" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C7" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D7" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E7" s="2">
+        <v>7</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>715</v>
+      </c>
+      <c r="H7" s="2">
+        <v>414</v>
+      </c>
+      <c r="I7" s="2">
+        <v>10</v>
+      </c>
+      <c r="J7" s="2">
+        <v>5</v>
+      </c>
+      <c r="K7" s="2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C8" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D8" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="E8" s="2">
+        <v>7</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>715</v>
+      </c>
+      <c r="H8" s="2">
+        <v>281</v>
+      </c>
+      <c r="I8" s="2">
+        <v>8</v>
+      </c>
+      <c r="J8" s="2">
+        <v>5</v>
+      </c>
+      <c r="K8" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C9" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D9" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E9" s="2">
+        <v>7</v>
+      </c>
+      <c r="F9" s="2">
+        <v>0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>326</v>
+      </c>
+      <c r="H9" s="2">
+        <v>801</v>
+      </c>
+      <c r="I9" s="2">
+        <v>8</v>
+      </c>
+      <c r="J9" s="2">
+        <v>5</v>
+      </c>
+      <c r="K9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>428</v>
+      </c>
+      <c r="C10" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D10" s="2">
+        <v>10.5</v>
+      </c>
+      <c r="E10" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F10" s="2">
+        <v>0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>381</v>
+      </c>
+      <c r="H10" s="2">
+        <v>283</v>
+      </c>
+      <c r="I10" s="2">
+        <v>6</v>
+      </c>
+      <c r="J10" s="2">
+        <v>5</v>
+      </c>
+      <c r="K10" s="2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C11" s="2">
+        <v>17</v>
+      </c>
+      <c r="D11" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="E11" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F11" s="2">
+        <v>139</v>
+      </c>
+      <c r="G11" s="2">
+        <v>701</v>
+      </c>
+      <c r="H11" s="2">
+        <v>361</v>
+      </c>
+      <c r="I11" s="2">
+        <v>9</v>
+      </c>
+      <c r="J11" s="2">
+        <v>5</v>
+      </c>
+      <c r="K11" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C12" s="2">
+        <v>17</v>
+      </c>
+      <c r="D12" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="E12" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="F12" s="2">
+        <v>139</v>
+      </c>
+      <c r="G12" s="2">
+        <v>701</v>
+      </c>
+      <c r="H12" s="2">
+        <v>361</v>
+      </c>
+      <c r="I12" s="2">
+        <v>9</v>
+      </c>
+      <c r="J12" s="2">
+        <v>5</v>
+      </c>
+      <c r="K12" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C13" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D13" s="2">
+        <v>25</v>
+      </c>
+      <c r="E13" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F13" s="2">
+        <v>240</v>
+      </c>
+      <c r="G13" s="2">
+        <v>1562</v>
+      </c>
+      <c r="H13" s="2">
+        <v>720</v>
+      </c>
+      <c r="I13" s="2">
+        <v>8</v>
+      </c>
+      <c r="J13" s="2">
+        <v>5</v>
+      </c>
+      <c r="K13" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14" s="2" t="s">
+        <v>427</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C14" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D14" s="2">
+        <v>25</v>
+      </c>
+      <c r="E14" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F14" s="2">
+        <v>240</v>
+      </c>
+      <c r="G14" s="2">
+        <v>1562</v>
+      </c>
+      <c r="H14" s="2">
+        <v>720</v>
+      </c>
+      <c r="I14" s="2">
+        <v>10</v>
+      </c>
+      <c r="J14" s="2">
+        <v>5</v>
+      </c>
+      <c r="K14" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C15" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D15" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E15" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F15" s="2">
+        <v>120</v>
+      </c>
+      <c r="G15" s="2">
+        <v>911</v>
+      </c>
+      <c r="H15" s="2">
+        <v>486</v>
+      </c>
+      <c r="I15" s="2">
+        <v>9</v>
+      </c>
+      <c r="J15" s="2">
+        <v>5</v>
+      </c>
+      <c r="K15" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D16" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E16" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F16" s="2">
+        <v>120</v>
+      </c>
+      <c r="G16" s="2">
+        <v>911</v>
+      </c>
+      <c r="H16" s="2">
+        <v>486</v>
+      </c>
+      <c r="I16" s="2">
+        <v>13</v>
+      </c>
+      <c r="J16" s="2">
+        <v>5</v>
+      </c>
+      <c r="K16" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A17" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C17" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D17" s="2">
+        <v>17</v>
+      </c>
+      <c r="E17" s="2">
+        <v>1</v>
+      </c>
+      <c r="F17" s="2">
+        <v>39</v>
+      </c>
+      <c r="G17" s="2">
+        <v>342</v>
+      </c>
+      <c r="H17" s="2">
+        <v>183</v>
+      </c>
+      <c r="I17" s="2">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2">
+        <v>5</v>
+      </c>
+      <c r="K17" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A18" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C18" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D18" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E18" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F18" s="2">
+        <v>120</v>
+      </c>
+      <c r="G18" s="2">
+        <v>911</v>
+      </c>
+      <c r="H18" s="2">
+        <v>974</v>
+      </c>
+      <c r="I18" s="2">
+        <v>12</v>
+      </c>
+      <c r="J18" s="2">
+        <v>5</v>
+      </c>
+      <c r="K18" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A19" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C19" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D19" s="2">
+        <v>17</v>
+      </c>
+      <c r="E19" s="2">
+        <v>1</v>
+      </c>
+      <c r="F19" s="2">
+        <v>39</v>
+      </c>
+      <c r="G19" s="2">
+        <v>342</v>
+      </c>
+      <c r="H19" s="2">
+        <v>366</v>
+      </c>
+      <c r="I19" s="2">
+        <v>9</v>
+      </c>
+      <c r="J19" s="2">
+        <v>5</v>
+      </c>
+      <c r="K19" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A20" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C20" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="D20" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E20" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F20" s="2">
+        <v>120</v>
+      </c>
+      <c r="G20" s="2">
+        <v>911</v>
+      </c>
+      <c r="H20" s="2">
+        <v>974</v>
+      </c>
+      <c r="I20" s="2">
+        <v>8</v>
+      </c>
+      <c r="J20" s="2">
+        <v>5</v>
+      </c>
+      <c r="K20" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A21" s="2" t="s">
+        <v>429</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C21" s="2">
+        <v>14.5</v>
+      </c>
+      <c r="D21" s="2">
+        <v>17</v>
+      </c>
+      <c r="E21" s="2">
+        <v>1</v>
+      </c>
+      <c r="F21" s="2">
+        <v>39</v>
+      </c>
+      <c r="G21" s="2">
+        <v>342</v>
+      </c>
+      <c r="H21" s="2">
+        <v>366</v>
+      </c>
+      <c r="I21" s="2">
+        <v>8</v>
+      </c>
+      <c r="J21" s="2">
+        <v>5</v>
+      </c>
+      <c r="K21" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A22" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C22" s="2">
+        <v>14</v>
+      </c>
+      <c r="D22" s="2">
+        <v>8</v>
+      </c>
+      <c r="E22" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F22" s="2">
+        <v>21</v>
+      </c>
+      <c r="G22" s="2">
+        <v>68</v>
+      </c>
+      <c r="H22" s="2">
+        <v>36</v>
+      </c>
+      <c r="I22" s="2">
+        <v>4</v>
+      </c>
+      <c r="J22" s="2">
+        <v>5</v>
+      </c>
+      <c r="K22" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A23" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C23" s="2">
+        <v>15</v>
+      </c>
+      <c r="D23" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E23" s="2">
+        <v>1</v>
+      </c>
+      <c r="F23" s="2">
+        <v>13</v>
+      </c>
+      <c r="G23" s="2">
+        <v>61</v>
+      </c>
+      <c r="H23" s="2">
+        <v>31</v>
+      </c>
+      <c r="I23" s="2">
+        <v>2</v>
+      </c>
+      <c r="J23" s="2">
+        <v>5</v>
+      </c>
+      <c r="K23" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A24" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C24" s="2">
+        <v>14</v>
+      </c>
+      <c r="D24" s="2">
+        <v>8</v>
+      </c>
+      <c r="E24" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F24" s="2">
+        <v>21</v>
+      </c>
+      <c r="G24" s="2">
+        <v>68</v>
+      </c>
+      <c r="H24" s="2">
+        <v>36</v>
+      </c>
+      <c r="I24" s="2">
+        <v>7</v>
+      </c>
+      <c r="J24" s="2">
+        <v>5</v>
+      </c>
+      <c r="K24" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A25" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C25" s="2">
+        <v>15</v>
+      </c>
+      <c r="D25" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E25" s="2">
+        <v>1</v>
+      </c>
+      <c r="F25" s="2">
+        <v>13</v>
+      </c>
+      <c r="G25" s="2">
+        <v>61</v>
+      </c>
+      <c r="H25" s="2">
+        <v>31</v>
+      </c>
+      <c r="I25" s="2">
+        <v>6</v>
+      </c>
+      <c r="J25" s="2">
+        <v>5</v>
+      </c>
+      <c r="K25" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A26" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C26" s="2">
+        <v>14</v>
+      </c>
+      <c r="D26" s="2">
+        <v>8</v>
+      </c>
+      <c r="E26" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F26" s="2">
+        <v>21</v>
+      </c>
+      <c r="G26" s="2">
+        <v>68</v>
+      </c>
+      <c r="H26" s="2">
+        <v>71</v>
+      </c>
+      <c r="I26" s="2">
+        <v>6</v>
+      </c>
+      <c r="J26" s="2">
+        <v>5</v>
+      </c>
+      <c r="K26" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A27" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C27" s="2">
+        <v>15</v>
+      </c>
+      <c r="D27" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E27" s="2">
+        <v>1</v>
+      </c>
+      <c r="F27" s="2">
+        <v>13</v>
+      </c>
+      <c r="G27" s="2">
+        <v>61</v>
+      </c>
+      <c r="H27" s="2">
+        <v>62</v>
+      </c>
+      <c r="I27" s="2">
+        <v>6</v>
+      </c>
+      <c r="J27" s="2">
+        <v>5</v>
+      </c>
+      <c r="K27" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A28" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C28" s="2">
+        <v>14</v>
+      </c>
+      <c r="D28" s="2">
+        <v>8</v>
+      </c>
+      <c r="E28" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F28" s="2">
+        <v>21</v>
+      </c>
+      <c r="G28" s="2">
+        <v>68</v>
+      </c>
+      <c r="H28" s="2">
+        <v>71</v>
+      </c>
+      <c r="I28" s="2">
+        <v>5</v>
+      </c>
+      <c r="J28" s="2">
+        <v>5</v>
+      </c>
+      <c r="K28" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A29" s="2" t="s">
+        <v>430</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C29" s="2">
+        <v>15</v>
+      </c>
+      <c r="D29" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E29" s="2">
+        <v>1</v>
+      </c>
+      <c r="F29" s="2">
+        <v>13</v>
+      </c>
+      <c r="G29" s="2">
+        <v>61</v>
+      </c>
+      <c r="H29" s="2">
+        <v>62</v>
+      </c>
+      <c r="I29" s="2">
+        <v>4</v>
+      </c>
+      <c r="J29" s="2">
+        <v>5</v>
+      </c>
+      <c r="K29" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A30" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C30" s="2">
+        <v>13</v>
+      </c>
+      <c r="D30" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E30" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F30" s="2">
+        <v>39</v>
+      </c>
+      <c r="G30" s="2">
+        <v>622</v>
+      </c>
+      <c r="H30" s="2">
+        <v>317</v>
+      </c>
+      <c r="I30" s="2">
+        <v>10</v>
+      </c>
+      <c r="J30" s="2">
+        <v>5</v>
+      </c>
+      <c r="K30" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A31" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C31" s="2">
+        <v>13</v>
+      </c>
+      <c r="D31" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E31" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F31" s="2">
+        <v>39</v>
+      </c>
+      <c r="G31" s="2">
+        <v>622</v>
+      </c>
+      <c r="H31" s="2">
+        <v>392</v>
+      </c>
+      <c r="I31" s="2">
+        <v>10</v>
+      </c>
+      <c r="J31" s="2">
+        <v>5</v>
+      </c>
+      <c r="K31" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A32" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C32" s="2">
+        <v>13</v>
+      </c>
+      <c r="D32" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E32" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F32" s="2">
+        <v>39</v>
+      </c>
+      <c r="G32" s="2">
+        <v>622</v>
+      </c>
+      <c r="H32" s="2">
+        <v>784</v>
+      </c>
+      <c r="I32" s="2">
+        <v>9</v>
+      </c>
+      <c r="J32" s="2">
+        <v>5</v>
+      </c>
+      <c r="K32" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A33" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C33" s="2">
+        <v>13</v>
+      </c>
+      <c r="D33" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E33" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F33" s="2">
+        <v>39</v>
+      </c>
+      <c r="G33" s="2">
+        <v>622</v>
+      </c>
+      <c r="H33" s="2">
+        <v>784</v>
+      </c>
+      <c r="I33" s="2">
+        <v>7</v>
+      </c>
+      <c r="J33" s="2">
+        <v>5</v>
+      </c>
+      <c r="K33" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A34" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C34" s="2">
+        <v>11.5</v>
+      </c>
+      <c r="D34" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="E34" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F34" s="2">
+        <v>45</v>
+      </c>
+      <c r="G34" s="2">
+        <v>175</v>
+      </c>
+      <c r="H34" s="2">
+        <v>77</v>
+      </c>
+      <c r="I34" s="2">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2">
+        <v>5</v>
+      </c>
+      <c r="K34" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A35" s="2" t="s">
+        <v>432</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C35" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="D35" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="E35" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F35" s="2">
+        <v>45</v>
+      </c>
+      <c r="G35" s="2">
+        <v>175</v>
+      </c>
+      <c r="H35" s="2">
+        <v>77</v>
+      </c>
+      <c r="I35" s="2">
+        <v>8</v>
+      </c>
+      <c r="J35" s="2">
+        <v>5</v>
+      </c>
+      <c r="K35" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A36" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C36" s="2">
+        <v>20</v>
+      </c>
+      <c r="D36" s="2">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2">
+        <v>10</v>
+      </c>
+      <c r="F36" s="2">
+        <v>0</v>
+      </c>
+      <c r="G36" s="2">
+        <v>370</v>
+      </c>
+      <c r="H36" s="2">
+        <v>326</v>
+      </c>
+      <c r="I36" s="2">
+        <v>10</v>
+      </c>
+      <c r="J36" s="2">
+        <v>5</v>
+      </c>
+      <c r="K36" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A37" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C37" s="2">
+        <v>15</v>
+      </c>
+      <c r="D37" s="2">
+        <v>10</v>
+      </c>
+      <c r="E37" s="2">
+        <v>3</v>
+      </c>
+      <c r="F37" s="2">
+        <v>104</v>
+      </c>
+      <c r="G37" s="2">
+        <v>672</v>
+      </c>
+      <c r="H37" s="2">
+        <v>264</v>
+      </c>
+      <c r="I37" s="2">
+        <v>7</v>
+      </c>
+      <c r="J37" s="2">
+        <v>5</v>
+      </c>
+      <c r="K37" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A38" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C38" s="2">
+        <v>15</v>
+      </c>
+      <c r="D38" s="2">
+        <v>10</v>
+      </c>
+      <c r="E38" s="2">
+        <v>3</v>
+      </c>
+      <c r="F38" s="2">
+        <v>90</v>
+      </c>
+      <c r="G38" s="2">
+        <v>617</v>
+      </c>
+      <c r="H38" s="2">
+        <v>244</v>
+      </c>
+      <c r="I38" s="2">
+        <v>7</v>
+      </c>
+      <c r="J38" s="2">
+        <v>5</v>
+      </c>
+      <c r="K38" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A39" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C39" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D39" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E39" s="2">
+        <v>7</v>
+      </c>
+      <c r="F39" s="2">
+        <v>86</v>
+      </c>
+      <c r="G39" s="2">
+        <v>384</v>
+      </c>
+      <c r="H39" s="2">
+        <v>231</v>
+      </c>
+      <c r="I39" s="2">
+        <v>8</v>
+      </c>
+      <c r="J39" s="2">
+        <v>5</v>
+      </c>
+      <c r="K39" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A40" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C40" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D40" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="E40" s="2">
+        <v>7</v>
+      </c>
+      <c r="F40" s="2">
+        <v>86</v>
+      </c>
+      <c r="G40" s="2">
+        <v>384</v>
+      </c>
+      <c r="H40" s="2">
+        <v>231</v>
+      </c>
+      <c r="I40" s="2">
+        <v>5</v>
+      </c>
+      <c r="J40" s="2">
+        <v>5</v>
+      </c>
+      <c r="K40" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A41" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C41" s="2">
+        <v>20</v>
+      </c>
+      <c r="D41" s="2">
+        <v>19</v>
+      </c>
+      <c r="E41" s="2">
+        <v>10</v>
+      </c>
+      <c r="F41" s="2">
+        <v>295</v>
+      </c>
+      <c r="G41" s="2">
+        <v>682</v>
+      </c>
+      <c r="H41" s="2">
+        <v>364</v>
+      </c>
+      <c r="I41" s="2">
+        <v>9</v>
+      </c>
+      <c r="J41" s="2">
+        <v>5</v>
+      </c>
+      <c r="K41" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A42" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C42" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="D42" s="2">
+        <v>18</v>
+      </c>
+      <c r="E42" s="2">
+        <v>7</v>
+      </c>
+      <c r="F42" s="2">
+        <v>164</v>
+      </c>
+      <c r="G42" s="2">
+        <v>781</v>
+      </c>
+      <c r="H42" s="2">
+        <v>360</v>
+      </c>
+      <c r="I42" s="2">
+        <v>6</v>
+      </c>
+      <c r="J42" s="2">
+        <v>5</v>
+      </c>
+      <c r="K42" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A43" s="2" t="s">
+        <v>433</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C43" s="2">
+        <v>20</v>
+      </c>
+      <c r="D43" s="2">
+        <v>19</v>
+      </c>
+      <c r="E43" s="2">
+        <v>10</v>
+      </c>
+      <c r="F43" s="2">
+        <v>294</v>
+      </c>
+      <c r="G43" s="2">
+        <v>682</v>
+      </c>
+      <c r="H43" s="2">
+        <v>364</v>
+      </c>
+      <c r="I43" s="2">
+        <v>6</v>
+      </c>
+      <c r="J43" s="2">
+        <v>5</v>
+      </c>
+      <c r="K43" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A44" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C44" s="2">
+        <v>19</v>
+      </c>
+      <c r="D44" s="2">
+        <v>9</v>
+      </c>
+      <c r="E44" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F44" s="2">
+        <v>0</v>
+      </c>
+      <c r="G44" s="2">
+        <v>189</v>
+      </c>
+      <c r="H44" s="2">
+        <v>71</v>
+      </c>
+      <c r="I44" s="2">
+        <v>8</v>
+      </c>
+      <c r="J44" s="2">
+        <v>5</v>
+      </c>
+      <c r="K44" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A45" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C45" s="2">
+        <v>19</v>
+      </c>
+      <c r="D45" s="2">
+        <v>9</v>
+      </c>
+      <c r="E45" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F45" s="2">
+        <v>0</v>
+      </c>
+      <c r="G45" s="2">
+        <v>193</v>
+      </c>
+      <c r="H45" s="2">
+        <v>71</v>
+      </c>
+      <c r="I45" s="2">
+        <v>5</v>
+      </c>
+      <c r="J45" s="2">
+        <v>5</v>
+      </c>
+      <c r="K45" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A46" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C46" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="D46" s="2">
+        <v>16.5</v>
+      </c>
+      <c r="E46" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F46" s="2">
+        <v>210</v>
+      </c>
+      <c r="G46" s="2">
+        <v>732</v>
+      </c>
+      <c r="H46" s="2">
+        <v>487</v>
+      </c>
+      <c r="I46" s="2">
+        <v>10</v>
+      </c>
+      <c r="J46" s="2">
+        <v>5</v>
+      </c>
+      <c r="K46" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A47" s="2" t="s">
+        <v>435</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C47" s="2">
+        <v>23.5</v>
+      </c>
+      <c r="D47" s="2">
+        <v>16</v>
+      </c>
+      <c r="E47" s="2">
+        <v>4.5</v>
+      </c>
+      <c r="F47" s="2">
+        <v>211</v>
+      </c>
+      <c r="G47" s="2">
+        <v>678</v>
+      </c>
+      <c r="H47" s="2">
+        <v>437</v>
+      </c>
+      <c r="I47" s="2">
+        <v>9</v>
+      </c>
+      <c r="J47" s="2">
+        <v>5</v>
+      </c>
+      <c r="K47" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A48" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C48" s="2">
+        <v>7</v>
+      </c>
+      <c r="D48" s="2">
+        <v>6.5</v>
+      </c>
+      <c r="E48" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F48" s="2">
+        <v>0</v>
+      </c>
+      <c r="G48" s="2">
+        <v>267</v>
+      </c>
+      <c r="H48" s="2">
+        <v>145</v>
+      </c>
+      <c r="I48" s="2">
+        <v>8</v>
+      </c>
+      <c r="J48" s="2">
+        <v>5</v>
+      </c>
+      <c r="K48" s="2">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A49" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C49" s="2">
+        <v>7</v>
+      </c>
+      <c r="D49" s="2">
+        <v>4</v>
+      </c>
+      <c r="E49" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F49" s="2">
+        <v>0</v>
+      </c>
+      <c r="G49" s="2">
+        <v>157</v>
+      </c>
+      <c r="H49" s="2">
+        <v>86</v>
+      </c>
+      <c r="I49" s="2">
+        <v>6</v>
+      </c>
+      <c r="J49" s="2">
+        <v>5</v>
+      </c>
+      <c r="K49" s="2">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A50" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>437</v>
+      </c>
+      <c r="C50" s="2">
+        <v>7</v>
+      </c>
+      <c r="D50" s="2">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F50" s="2">
+        <v>0</v>
+      </c>
+      <c r="G50" s="2">
+        <v>157</v>
+      </c>
+      <c r="H50" s="2">
+        <v>86</v>
+      </c>
+      <c r="I50" s="2">
+        <v>8</v>
+      </c>
+      <c r="J50" s="2">
+        <v>5</v>
+      </c>
+      <c r="K50" s="2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A51" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C51" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D51" s="2">
+        <v>18</v>
+      </c>
+      <c r="E51" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F51" s="2">
+        <v>0</v>
+      </c>
+      <c r="G51" s="2">
+        <v>46</v>
+      </c>
+      <c r="H51" s="2">
+        <v>46</v>
+      </c>
+      <c r="I51" s="2">
+        <v>9</v>
+      </c>
+      <c r="J51" s="2">
+        <v>5</v>
+      </c>
+      <c r="K51" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A52" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>425</v>
+      </c>
+      <c r="C52" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D52" s="2">
+        <v>18</v>
+      </c>
+      <c r="E52" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F52" s="2">
+        <v>0</v>
+      </c>
+      <c r="G52" s="2">
+        <v>46</v>
+      </c>
+      <c r="H52" s="2">
+        <v>46</v>
+      </c>
+      <c r="I52" s="2">
+        <v>6</v>
+      </c>
+      <c r="J52" s="2">
+        <v>5</v>
+      </c>
+      <c r="K52" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A53" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C53" s="2">
+        <v>14</v>
+      </c>
+      <c r="D53" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="E53" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F53" s="2">
+        <v>100</v>
+      </c>
+      <c r="G53" s="2">
+        <v>284</v>
+      </c>
+      <c r="H53" s="2">
+        <v>182</v>
+      </c>
+      <c r="I53" s="2">
+        <v>8</v>
+      </c>
+      <c r="J53" s="2">
+        <v>5</v>
+      </c>
+      <c r="K53" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A54" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C54" s="2">
+        <v>14</v>
+      </c>
+      <c r="D54" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="E54" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F54" s="2">
+        <v>114</v>
+      </c>
+      <c r="G54" s="2">
+        <v>597</v>
+      </c>
+      <c r="H54" s="2">
+        <v>219</v>
+      </c>
+      <c r="I54" s="2">
+        <v>6</v>
+      </c>
+      <c r="J54" s="2">
+        <v>5</v>
+      </c>
+      <c r="K54" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A55" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C55" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D55" s="2">
+        <v>20</v>
+      </c>
+      <c r="E55" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F55" s="2">
+        <v>208</v>
+      </c>
+      <c r="G55" s="2">
+        <v>1219</v>
+      </c>
+      <c r="H55" s="2">
+        <v>710</v>
+      </c>
+      <c r="I55" s="2">
+        <v>12</v>
+      </c>
+      <c r="J55" s="2">
+        <v>5</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A56" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C56" s="2">
+        <v>15.5</v>
+      </c>
+      <c r="D56" s="2">
+        <v>20</v>
+      </c>
+      <c r="E56" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="F56" s="2">
+        <v>216</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1315</v>
+      </c>
+      <c r="H56" s="2">
+        <v>749</v>
+      </c>
+      <c r="I56" s="2">
+        <v>13</v>
+      </c>
+      <c r="J56" s="2">
+        <v>5</v>
+      </c>
+      <c r="K56" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A57" s="2" t="s">
+        <v>436</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C57" s="2">
+        <v>9.5</v>
+      </c>
+      <c r="D57" s="2">
+        <v>20</v>
+      </c>
+      <c r="E57" s="2">
+        <v>5.5</v>
+      </c>
+      <c r="F57" s="2">
+        <v>36</v>
+      </c>
+      <c r="G57" s="2">
+        <v>550</v>
+      </c>
+      <c r="H57" s="2">
+        <v>314</v>
+      </c>
+      <c r="I57" s="2">
+        <v>8</v>
+      </c>
+      <c r="J57" s="2">
+        <v>5</v>
+      </c>
+      <c r="K57" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A58" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C58" s="2">
+        <v>20</v>
+      </c>
+      <c r="D58" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E58" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F58" s="2">
+        <v>238</v>
+      </c>
+      <c r="G58" s="2">
+        <v>671</v>
+      </c>
+      <c r="H58" s="2">
+        <v>347</v>
+      </c>
+      <c r="I58" s="2">
+        <v>9</v>
+      </c>
+      <c r="J58" s="2">
+        <v>5</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A59" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C59" s="2">
+        <v>20</v>
+      </c>
+      <c r="D59" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E59" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F59" s="2">
+        <v>238</v>
+      </c>
+      <c r="G59" s="2">
+        <v>671</v>
+      </c>
+      <c r="H59" s="2">
+        <v>347</v>
+      </c>
+      <c r="I59" s="2">
+        <v>5</v>
+      </c>
+      <c r="J59" s="2">
+        <v>5</v>
+      </c>
+      <c r="K59" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A60" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C60" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="D60" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E60" s="2">
+        <v>5</v>
+      </c>
+      <c r="F60" s="2">
+        <v>198</v>
+      </c>
+      <c r="G60" s="2">
+        <v>1240</v>
+      </c>
+      <c r="H60" s="2">
+        <v>696</v>
+      </c>
+      <c r="I60" s="2">
+        <v>8</v>
+      </c>
+      <c r="J60" s="2">
+        <v>5</v>
+      </c>
+      <c r="K60" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A61" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C61" s="2">
+        <v>18.5</v>
+      </c>
+      <c r="D61" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E61" s="2">
+        <v>5</v>
+      </c>
+      <c r="F61" s="2">
+        <v>198</v>
+      </c>
+      <c r="G61" s="2">
+        <v>1240</v>
+      </c>
+      <c r="H61" s="2">
+        <v>696</v>
+      </c>
+      <c r="I61" s="2">
+        <v>10</v>
+      </c>
+      <c r="J61" s="2">
+        <v>5</v>
+      </c>
+      <c r="K61" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A62" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C62" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D62" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E62" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F62" s="2">
+        <v>0</v>
+      </c>
+      <c r="G62" s="2">
+        <v>520</v>
+      </c>
+      <c r="H62" s="2">
+        <v>204</v>
+      </c>
+      <c r="I62" s="2">
+        <v>7</v>
+      </c>
+      <c r="J62" s="2">
+        <v>5</v>
+      </c>
+      <c r="K62" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A63" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D63" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E63" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F63" s="2">
+        <v>0</v>
+      </c>
+      <c r="G63" s="2">
+        <v>520</v>
+      </c>
+      <c r="H63" s="2">
+        <v>204</v>
+      </c>
+      <c r="I63" s="2">
+        <v>5</v>
+      </c>
+      <c r="J63" s="2">
+        <v>5</v>
+      </c>
+      <c r="K63" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A64" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C64" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D64" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E64" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F64" s="2">
+        <v>194</v>
+      </c>
+      <c r="G64" s="2">
+        <v>1300</v>
+      </c>
+      <c r="H64" s="2">
+        <v>591</v>
+      </c>
+      <c r="I64" s="2">
+        <v>7</v>
+      </c>
+      <c r="J64" s="2">
+        <v>5</v>
+      </c>
+      <c r="K64" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A65" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C65" s="2">
+        <v>18</v>
+      </c>
+      <c r="D65" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E65" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F65" s="2">
+        <v>232</v>
+      </c>
+      <c r="G65" s="2">
+        <v>1512</v>
+      </c>
+      <c r="H65" s="2">
+        <v>809</v>
+      </c>
+      <c r="I65" s="2">
+        <v>6</v>
+      </c>
+      <c r="J65" s="2">
+        <v>5</v>
+      </c>
+      <c r="K65" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A66" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C66" s="2">
+        <v>17.5</v>
+      </c>
+      <c r="D66" s="2">
+        <v>19.5</v>
+      </c>
+      <c r="E66" s="2">
+        <v>7.5</v>
+      </c>
+      <c r="F66" s="2">
+        <v>194</v>
+      </c>
+      <c r="G66" s="2">
+        <v>1300</v>
+      </c>
+      <c r="H66" s="2">
+        <v>591</v>
+      </c>
+      <c r="I66" s="2">
+        <v>7</v>
+      </c>
+      <c r="J66" s="2">
+        <v>5</v>
+      </c>
+      <c r="K66" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A67" s="2" t="s">
+        <v>438</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C67" s="2">
+        <v>18</v>
+      </c>
+      <c r="D67" s="2">
+        <v>20.5</v>
+      </c>
+      <c r="E67" s="2">
+        <v>8.5</v>
+      </c>
+      <c r="F67" s="2">
+        <v>232</v>
+      </c>
+      <c r="G67" s="2">
+        <v>1512</v>
+      </c>
+      <c r="H67" s="2">
+        <v>809</v>
+      </c>
+      <c r="I67" s="2">
+        <v>7</v>
+      </c>
+      <c r="J67" s="2">
+        <v>5</v>
+      </c>
+      <c r="K67" s="2">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/input/configurations/block_data.xlsx
+++ b/input/configurations/block_data.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20417"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\python_project\2025_MAS_KSOE\input\configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050DF1C-6610-4B9B-AF73-A5C7D8143DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AEE79EE-69B0-423F-B801-3650E718EE0F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="3570" windowWidth="22935" windowHeight="11190" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2838,7 +2838,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G46">
+  <sortState ref="A2:G46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -5402,7 +5402,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D127">
+  <sortState ref="A2:D127">
     <sortCondition ref="A1:A127"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -7966,7 +7966,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D127">
+  <sortState ref="A2:D127">
     <sortCondition ref="A1:A127"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -10530,7 +10530,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D127">
+  <sortState ref="A2:D127">
     <sortCondition ref="A1:A127"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -11284,7 +11284,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C43">
+  <sortState ref="A2:C43">
     <sortCondition ref="A1:A43"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -12366,7 +12366,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
+  <sortState ref="A2:E46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -13171,7 +13171,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C46">
+  <sortState ref="A2:C46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -14255,7 +14255,7 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:E46">
+  <sortState ref="A2:E46">
     <sortCondition ref="A1:A46"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>

--- a/input/configurations/block_data.xlsx
+++ b/input/configurations/block_data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\young\PycharmProjects\2025_MAS_KSOE\input\configurations\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yyj\Project\전략과제\2025_MAS_KSOE\input\configurations\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6050DF1C-6610-4B9B-AF73-A5C7D8143DCA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC34EF57-BFBC-45D8-8554-D6DB883E8C72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="3570" windowWidth="22935" windowHeight="11190" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="0" windowWidth="14610" windowHeight="15585" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="count" sheetId="8" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1926" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2311" uniqueCount="554">
   <si>
     <t>coef_0</t>
   </si>
@@ -1373,6 +1373,351 @@
   <si>
     <t>VL_S</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>bay</t>
+  </si>
+  <si>
+    <t>('M033', 'M031')</t>
+  </si>
+  <si>
+    <t>('M032',)</t>
+  </si>
+  <si>
+    <t>('M025-2',)</t>
+  </si>
+  <si>
+    <t>('M222', 'M012', 'M011', 'M023', 'M221')</t>
+  </si>
+  <si>
+    <t>('M212', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M024',)</t>
+  </si>
+  <si>
+    <t>('M021', 'M023')</t>
+  </si>
+  <si>
+    <t>('M033',)</t>
+  </si>
+  <si>
+    <t>('M033', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M022', 'M021', 'M012')</t>
+  </si>
+  <si>
+    <t>('M024', 'M012')</t>
+  </si>
+  <si>
+    <t>('M032', 'M025-1', 'M031')</t>
+  </si>
+  <si>
+    <t>('M211',)</t>
+  </si>
+  <si>
+    <t>('M021', 'M212', 'M023')</t>
+  </si>
+  <si>
+    <t>('M222', 'M033', 'M212', 'M211', 'M011', 'M221', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M221', 'M222')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M022', 'M011', 'M023', 'M221', 'M024')</t>
+  </si>
+  <si>
+    <t>('M222', 'M212', 'M012', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M222', 'M033', 'M025-1', 'M212', 'M112', 'M032', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M022', 'M011', 'M023')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M022', 'M011', 'M023', 'M221', 'M112', 'M032', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M033', 'M212', 'M012', 'M222', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M033', 'M212', 'M012', 'M022', 'M011', 'M023', 'M025-2', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M022', 'M011', 'M023', 'M221')</t>
+  </si>
+  <si>
+    <t>('M222', 'M033', 'M212', 'M012', 'M211', 'M022', 'M011', 'M221', 'M112', 'M032', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M033', 'M212', 'M012', 'M222', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M222', 'M025-1', 'M033', 'M212', 'M012', 'M211', 'M022', 'M221', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M022', 'M222', 'M023')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M032', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M022', 'M011', 'M023', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M033', 'M212', 'M012', 'M211', 'M011', 'M221', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M011', 'M023', 'M221')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M212', 'M222', 'M012', 'M211', 'M022', 'M011', 'M221', 'M112', 'M025-2', 'M024')</t>
+  </si>
+  <si>
+    <t>('M211', 'M222', 'M011', 'M012')</t>
+  </si>
+  <si>
+    <t>('M222', 'M012', 'M022', 'M011', 'M023', 'M211')</t>
+  </si>
+  <si>
+    <t>('M222', 'M025-1', 'M033', 'M212', 'M012', 'M211', 'M022', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M022', 'M024', 'M023')</t>
+  </si>
+  <si>
+    <t>('M022', 'M222', 'M024', 'M012')</t>
+  </si>
+  <si>
+    <t>('M222', 'M033', 'M025-1', 'M212', 'M221', 'M112', 'M032', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M011', 'M023', 'M221', 'M112', 'M211')</t>
+  </si>
+  <si>
+    <t>('M222',)</t>
+  </si>
+  <si>
+    <t>('M112', 'M212', 'M221', 'M211')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M211', 'M022', 'M011', 'M023', 'M221', 'M024')</t>
+  </si>
+  <si>
+    <t>('M033', 'M025-1', 'M212', 'M011', 'M112', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M022',)</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M222', 'M025-1', 'M012', 'M011', 'M221', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M221', 'M022', 'M212', 'M012')</t>
+  </si>
+  <si>
+    <t>('M032', 'M033', 'M031')</t>
+  </si>
+  <si>
+    <t>('M222', 'M212', 'M012', 'M011', 'M221', 'M032', 'M024', 'M211')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M112', 'M032', 'M025-2', 'M211')</t>
+  </si>
+  <si>
+    <t>('M112', 'M212', 'M025-2', 'M024')</t>
+  </si>
+  <si>
+    <t>('M012', 'M211', 'M022', 'M011', 'M023', 'M024')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M212', 'M221', 'M112', 'M025-2', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M011')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M033', 'M212', 'M011', 'M112', 'M032', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M212', 'M211', 'M011', 'M012')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M012', 'M211', 'M011', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M033', 'M212', 'M012', 'M211', 'M022', 'M011', 'M023', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M012', 'M022', 'M023', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M012', 'M022', 'M011', 'M023', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M033', 'M023', 'M112', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M033', 'M025-1', 'M112', 'M032', 'M025-2', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M011', 'M023', 'M221', 'M112', 'M025-2')</t>
+  </si>
+  <si>
+    <t>('M024', 'M011')</t>
+  </si>
+  <si>
+    <t>('M222', 'M033', 'M025-1', 'M212', 'M221', 'M112', 'M032', 'M025-2', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M022', 'M011', 'M221')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M212', 'M222', 'M012', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M025-2', 'M024')</t>
+  </si>
+  <si>
+    <t>('M033', 'M025-1', 'M112', 'M032', 'M025-2')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M033', 'M212', 'M012', 'M222', 'M211', 'M022', 'M011', 'M112', 'M032', 'M025-2', 'M024')</t>
+  </si>
+  <si>
+    <t>('M023', 'M221', 'M022', 'M012')</t>
+  </si>
+  <si>
+    <t>('M112', 'M024', 'M221', 'M011')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M033', 'M212', 'M211', 'M022', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M023', 'M021', 'M022')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M022', 'M011', 'M023', 'M221')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M033', 'M212', 'M222', 'M011', 'M023', 'M221', 'M112', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M033', 'M212', 'M012', 'M022', 'M023', 'M112')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M212', 'M222', 'M012', 'M211', 'M022', 'M011', 'M023', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M222', 'M212', 'M012', 'M022', 'M221', 'M211')</t>
+  </si>
+  <si>
+    <t>('M033', 'M212', 'M012', 'M022', 'M112', 'M025-2')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M033', 'M212', 'M012', 'M022', 'M023', 'M112', 'M025-2', 'M031')</t>
+  </si>
+  <si>
+    <t>('M221', 'M022')</t>
+  </si>
+  <si>
+    <t>('M221', 'M022', 'M222', 'M012')</t>
+  </si>
+  <si>
+    <t>('M012',)</t>
+  </si>
+  <si>
+    <t>('M022', 'M021', 'M011', 'M012')</t>
+  </si>
+  <si>
+    <t>('M222', 'M025-1', 'M033', 'M212', 'M012', 'M022', 'M011', 'M023', 'M221', 'M112', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M023', 'M022', 'M024', 'M012')</t>
+  </si>
+  <si>
+    <t>('M021', 'M024', 'M012')</t>
+  </si>
+  <si>
+    <t>('M212', 'M211', 'M011', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M033', 'M025-1', 'M211', 'M112', 'M032', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M212', 'M012', 'M022', 'M011', 'M023', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M024', 'M021', 'M011', 'M022')</t>
+  </si>
+  <si>
+    <t>('M112', 'M212', 'M211')</t>
+  </si>
+  <si>
+    <t>('M022', 'M011')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M033', 'M212', 'M012', 'M222', 'M211', 'M022', 'M011', 'M023', 'M112', 'M032', 'M025-2', 'M024', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M012', 'M022', 'M011', 'M023', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M021', 'M033', 'M212', 'M222', 'M012', 'M011', 'M023', 'M221', 'M112', 'M032', 'M211')</t>
+  </si>
+  <si>
+    <t>('M025-1', 'M033', 'M012', 'M022', 'M011', 'M112', 'M032', 'M025-2')</t>
+  </si>
+  <si>
+    <t>('M222', 'M012', 'M022', 'M011', 'M023', 'M221')</t>
+  </si>
+  <si>
+    <t>('M222', 'M025-1', 'M033', 'M212', 'M012', 'M221', 'M112', 'M032', 'M025-2', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M021', 'M222', 'M212', 'M022', 'M011', 'M023', 'M221', 'M112', 'M211')</t>
+  </si>
+  <si>
+    <t>('M021', 'M025-1', 'M212', 'M222', 'M211', 'M022', 'M011', 'M023', 'M221', 'M112', 'M024')</t>
+  </si>
+  <si>
+    <t>('M031',)</t>
+  </si>
+  <si>
+    <t>('M222', 'M033', 'M212', 'M211', 'M031')</t>
+  </si>
+  <si>
+    <t>('M022', 'M023')</t>
+  </si>
+  <si>
+    <t>('M032', 'M033')</t>
+  </si>
+  <si>
+    <t>('M032', 'M025-2', 'M033', 'M031')</t>
+  </si>
+  <si>
+    <t>('M022', 'M011', 'M012')</t>
+  </si>
+  <si>
+    <t>('M032', 'M031')</t>
+  </si>
+  <si>
+    <t>('M033', 'M025-2', 'M025-1', 'M031')</t>
+  </si>
+  <si>
+    <t>('M025-2', 'M211')</t>
+  </si>
+  <si>
+    <t>min_bay</t>
+  </si>
+  <si>
+    <t>max_bay</t>
   </si>
 </sst>
 </file>
@@ -1450,7 +1795,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1460,6 +1805,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2848,9 +3196,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CFCD20E0-A6CE-412A-8944-D2308F8B996A}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:G127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2861,7 +3211,7 @@
     <col min="5" max="6" width="5.125" style="2" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -2880,8 +3230,11 @@
       <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -2900,8 +3253,11 @@
       <c r="F2" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -2920,8 +3276,11 @@
       <c r="F3" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -2940,8 +3299,11 @@
       <c r="F4" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -2960,8 +3322,11 @@
       <c r="F5" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -2980,8 +3345,11 @@
       <c r="F6" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -3000,8 +3368,11 @@
       <c r="F7" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -3020,8 +3391,11 @@
       <c r="F8" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -3040,8 +3414,11 @@
       <c r="F9" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -3060,8 +3437,11 @@
       <c r="F10" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -3080,8 +3460,11 @@
       <c r="F11" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -3100,8 +3483,11 @@
       <c r="F12" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -3120,8 +3506,11 @@
       <c r="F13" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -3140,8 +3529,11 @@
       <c r="F14" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -3160,8 +3552,11 @@
       <c r="F15" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -3180,8 +3575,11 @@
       <c r="F16" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -3200,8 +3598,11 @@
       <c r="F17" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -3220,8 +3621,11 @@
       <c r="F18" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -3240,8 +3644,11 @@
       <c r="F19" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -3260,8 +3667,11 @@
       <c r="F20" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -3280,8 +3690,11 @@
       <c r="F21" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -3300,8 +3713,11 @@
       <c r="F22" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -3320,8 +3736,11 @@
       <c r="F23" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -3340,8 +3759,11 @@
       <c r="F24" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -3360,8 +3782,11 @@
       <c r="F25" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -3380,8 +3805,11 @@
       <c r="F26" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -3400,8 +3828,11 @@
       <c r="F27" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -3420,8 +3851,11 @@
       <c r="F28" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -3440,8 +3874,11 @@
       <c r="F29" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -3460,8 +3897,11 @@
       <c r="F30" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -3480,8 +3920,11 @@
       <c r="F31" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -3500,8 +3943,11 @@
       <c r="F32" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -3520,8 +3966,11 @@
       <c r="F33" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -3540,8 +3989,11 @@
       <c r="F34" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -3560,8 +4012,11 @@
       <c r="F35" s="2">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -3580,8 +4035,11 @@
       <c r="F36" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -3600,8 +4058,11 @@
       <c r="F37" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -3620,8 +4081,11 @@
       <c r="F38" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -3640,8 +4104,11 @@
       <c r="F39" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -3660,8 +4127,11 @@
       <c r="F40" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -3680,8 +4150,11 @@
       <c r="F41" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -3700,8 +4173,11 @@
       <c r="F42" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -3720,8 +4196,11 @@
       <c r="F43" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -3740,8 +4219,11 @@
       <c r="F44" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -3760,8 +4242,11 @@
       <c r="F45" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -3780,8 +4265,11 @@
       <c r="F46" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -3800,8 +4288,11 @@
       <c r="F47" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -3820,8 +4311,11 @@
       <c r="F48" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -3840,8 +4334,11 @@
       <c r="F49" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -3860,8 +4357,11 @@
       <c r="F50" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -3880,8 +4380,11 @@
       <c r="F51" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -3900,8 +4403,11 @@
       <c r="F52" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -3920,8 +4426,11 @@
       <c r="F53" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -3940,8 +4449,11 @@
       <c r="F54" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>467</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -3960,8 +4472,11 @@
       <c r="F55" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>485</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -3980,8 +4495,11 @@
       <c r="F56" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -4000,8 +4518,11 @@
       <c r="F57" s="2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>487</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -4020,8 +4541,11 @@
       <c r="F58" s="2">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -4040,8 +4564,11 @@
       <c r="F59" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -4060,8 +4587,11 @@
       <c r="F60" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>489</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -4080,8 +4610,11 @@
       <c r="F61" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -4100,8 +4633,11 @@
       <c r="F62" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>491</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -4120,8 +4656,11 @@
       <c r="F63" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -4140,8 +4679,11 @@
       <c r="F64" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>493</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -4160,8 +4702,11 @@
       <c r="F65" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -4180,8 +4725,11 @@
       <c r="F66" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -4200,8 +4748,11 @@
       <c r="F67" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -4220,8 +4771,11 @@
       <c r="F68" s="2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -4240,8 +4794,11 @@
       <c r="F69" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>497</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -4260,8 +4817,11 @@
       <c r="F70" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -4280,8 +4840,11 @@
       <c r="F71" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -4300,8 +4863,11 @@
       <c r="F72" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -4320,8 +4886,11 @@
       <c r="F73" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
@@ -4340,8 +4909,11 @@
       <c r="F74" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -4360,8 +4932,11 @@
       <c r="F75" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>30</v>
       </c>
@@ -4380,8 +4955,11 @@
       <c r="F76" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -4400,8 +4978,11 @@
       <c r="F77" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -4420,8 +5001,11 @@
       <c r="F78" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -4440,8 +5024,11 @@
       <c r="F79" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -4460,8 +5047,11 @@
       <c r="F80" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -4480,8 +5070,11 @@
       <c r="F81" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -4500,8 +5093,11 @@
       <c r="F82" s="2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -4520,8 +5116,11 @@
       <c r="F83" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -4540,8 +5139,11 @@
       <c r="F84" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -4560,8 +5162,11 @@
       <c r="F85" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
@@ -4580,8 +5185,11 @@
       <c r="F86" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -4600,8 +5208,11 @@
       <c r="F87" s="2">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -4620,8 +5231,11 @@
       <c r="F88" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -4640,8 +5254,11 @@
       <c r="F89" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -4660,8 +5277,11 @@
       <c r="F90" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -4680,8 +5300,11 @@
       <c r="F91" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -4700,8 +5323,11 @@
       <c r="F92" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>22</v>
       </c>
@@ -4720,8 +5346,11 @@
       <c r="F93" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -4740,8 +5369,11 @@
       <c r="F94" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -4760,8 +5392,11 @@
       <c r="F95" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -4780,8 +5415,11 @@
       <c r="F96" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -4800,8 +5438,11 @@
       <c r="F97" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -4820,8 +5461,11 @@
       <c r="F98" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -4840,8 +5484,11 @@
       <c r="F99" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -4860,8 +5507,11 @@
       <c r="F100" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -4880,8 +5530,11 @@
       <c r="F101" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -4900,8 +5553,11 @@
       <c r="F102" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -4920,8 +5576,11 @@
       <c r="F103" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>26</v>
       </c>
@@ -4940,8 +5599,11 @@
       <c r="F104" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -4960,8 +5622,11 @@
       <c r="F105" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>26</v>
       </c>
@@ -4980,8 +5645,11 @@
       <c r="F106" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -5000,8 +5668,11 @@
       <c r="F107" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
@@ -5020,8 +5691,11 @@
       <c r="F108" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -5040,8 +5714,11 @@
       <c r="F109" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -5060,8 +5737,11 @@
       <c r="F110" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -5080,8 +5760,11 @@
       <c r="F111" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -5100,8 +5783,11 @@
       <c r="F112" s="2">
         <v>26.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
@@ -5120,8 +5806,11 @@
       <c r="F113" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -5140,8 +5829,11 @@
       <c r="F114" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>539</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -5160,8 +5852,11 @@
       <c r="F115" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -5180,8 +5875,11 @@
       <c r="F116" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>541</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -5200,8 +5898,11 @@
       <c r="F117" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -5220,8 +5921,11 @@
       <c r="F118" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>543</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -5240,8 +5944,11 @@
       <c r="F119" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -5260,8 +5967,11 @@
       <c r="F120" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
@@ -5280,8 +5990,11 @@
       <c r="F121" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>545</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -5300,8 +6013,11 @@
       <c r="F122" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -5320,8 +6036,11 @@
       <c r="F123" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
@@ -5340,8 +6059,11 @@
       <c r="F124" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>40</v>
       </c>
@@ -5360,8 +6082,11 @@
       <c r="F125" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>549</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
@@ -5380,8 +6105,11 @@
       <c r="F126" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -5399,6 +6127,9 @@
       </c>
       <c r="F127" s="2">
         <v>17.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>551</v>
       </c>
     </row>
   </sheetData>
@@ -5412,9 +6143,11 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3F876E70-07D7-4241-8A15-BB4589B7EC63}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="I35" sqref="I35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5423,9 +6156,10 @@
     <col min="3" max="3" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="64.25" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -5444,8 +6178,17 @@
       <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -5464,8 +6207,17 @@
       <c r="F2" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2">
+        <v>25.2</v>
+      </c>
+      <c r="I2">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -5484,8 +6236,17 @@
       <c r="F3" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3">
+        <v>25</v>
+      </c>
+      <c r="I3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -5504,8 +6265,17 @@
       <c r="F4" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4">
+        <v>39</v>
+      </c>
+      <c r="I4">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -5524,8 +6294,17 @@
       <c r="F5" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>443</v>
+      </c>
+      <c r="H5">
+        <v>6</v>
+      </c>
+      <c r="I5">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -5544,8 +6323,17 @@
       <c r="F6" s="2">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6">
+        <v>8</v>
+      </c>
+      <c r="I6">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -5564,8 +6352,17 @@
       <c r="F7" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7">
+        <v>39</v>
+      </c>
+      <c r="I7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -5584,8 +6381,17 @@
       <c r="F8" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8">
+        <v>39</v>
+      </c>
+      <c r="I8">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -5604,8 +6410,17 @@
       <c r="F9" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9">
+        <v>26</v>
+      </c>
+      <c r="I9">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -5624,8 +6439,17 @@
       <c r="F10" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10">
+        <v>8</v>
+      </c>
+      <c r="I10">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -5644,8 +6468,17 @@
       <c r="F11" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H11">
+        <v>22</v>
+      </c>
+      <c r="I11">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -5664,8 +6497,17 @@
       <c r="F12" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12">
+        <v>22</v>
+      </c>
+      <c r="I12">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -5684,8 +6526,17 @@
       <c r="F13" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H13">
+        <v>25</v>
+      </c>
+      <c r="I13">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -5704,8 +6555,17 @@
       <c r="F14" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14">
+        <v>8</v>
+      </c>
+      <c r="I14">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -5724,8 +6584,17 @@
       <c r="F15" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>453</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -5744,8 +6613,17 @@
       <c r="F16" s="2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16">
+        <v>6</v>
+      </c>
+      <c r="I16">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -5764,8 +6642,17 @@
       <c r="F17" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>455</v>
+      </c>
+      <c r="H17">
+        <v>6</v>
+      </c>
+      <c r="I17">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -5784,8 +6671,17 @@
       <c r="F18" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18">
+        <v>6</v>
+      </c>
+      <c r="I18">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -5804,8 +6700,17 @@
       <c r="F19" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>457</v>
+      </c>
+      <c r="H19">
+        <v>6</v>
+      </c>
+      <c r="I19">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -5824,8 +6729,17 @@
       <c r="F20" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>458</v>
+      </c>
+      <c r="H20">
+        <v>6</v>
+      </c>
+      <c r="I20">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -5844,8 +6758,17 @@
       <c r="F21" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21">
+        <v>6</v>
+      </c>
+      <c r="I21">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -5864,8 +6787,17 @@
       <c r="F22" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22">
+        <v>6</v>
+      </c>
+      <c r="I22">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -5884,8 +6816,17 @@
       <c r="F23" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H23">
+        <v>6</v>
+      </c>
+      <c r="I23">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -5904,8 +6845,17 @@
       <c r="F24" s="2">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>462</v>
+      </c>
+      <c r="H24">
+        <v>8</v>
+      </c>
+      <c r="I24">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -5924,8 +6874,17 @@
       <c r="F25" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25">
+        <v>6</v>
+      </c>
+      <c r="I25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -5944,8 +6903,17 @@
       <c r="F26" s="2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26">
+        <v>6</v>
+      </c>
+      <c r="I26">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -5964,8 +6932,17 @@
       <c r="F27" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H27">
+        <v>6</v>
+      </c>
+      <c r="I27">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -5984,8 +6961,17 @@
       <c r="F28" s="2">
         <v>17</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H28">
+        <v>6</v>
+      </c>
+      <c r="I28">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -6004,8 +6990,17 @@
       <c r="F29" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>466</v>
+      </c>
+      <c r="H29">
+        <v>6</v>
+      </c>
+      <c r="I29">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -6024,8 +7019,17 @@
       <c r="F30" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30">
+        <v>6</v>
+      </c>
+      <c r="I30">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -6044,8 +7048,17 @@
       <c r="F31" s="2">
         <v>25.5</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31">
+        <v>6</v>
+      </c>
+      <c r="I31">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -6064,8 +7077,17 @@
       <c r="F32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>468</v>
+      </c>
+      <c r="H32">
+        <v>6</v>
+      </c>
+      <c r="I32">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -6084,8 +7106,17 @@
       <c r="F33" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>469</v>
+      </c>
+      <c r="H33">
+        <v>6</v>
+      </c>
+      <c r="I33">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -6104,8 +7135,17 @@
       <c r="F34" s="2">
         <v>21</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34">
+        <v>6</v>
+      </c>
+      <c r="I34">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -6124,8 +7164,17 @@
       <c r="F35" s="2">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>471</v>
+      </c>
+      <c r="H35">
+        <v>6</v>
+      </c>
+      <c r="I35">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -6144,8 +7193,17 @@
       <c r="F36" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>472</v>
+      </c>
+      <c r="H36">
+        <v>6</v>
+      </c>
+      <c r="I36">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -6164,8 +7222,17 @@
       <c r="F37" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>463</v>
+      </c>
+      <c r="H37">
+        <v>6</v>
+      </c>
+      <c r="I37">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -6184,8 +7251,17 @@
       <c r="F38" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>473</v>
+      </c>
+      <c r="H38">
+        <v>6</v>
+      </c>
+      <c r="I38">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -6204,8 +7280,17 @@
       <c r="F39" s="2">
         <v>22.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>474</v>
+      </c>
+      <c r="H39">
+        <v>6</v>
+      </c>
+      <c r="I39">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -6224,8 +7309,17 @@
       <c r="F40" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>475</v>
+      </c>
+      <c r="H40">
+        <v>6</v>
+      </c>
+      <c r="I40">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -6244,8 +7338,17 @@
       <c r="F41" s="2">
         <v>22</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41">
+        <v>6</v>
+      </c>
+      <c r="I41">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -6264,8 +7367,17 @@
       <c r="F42" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>477</v>
+      </c>
+      <c r="H42">
+        <v>39</v>
+      </c>
+      <c r="I42">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -6284,8 +7396,17 @@
       <c r="F43" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>456</v>
+      </c>
+      <c r="H43">
+        <v>6</v>
+      </c>
+      <c r="I43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -6304,8 +7425,17 @@
       <c r="F44" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>478</v>
+      </c>
+      <c r="H44">
+        <v>6</v>
+      </c>
+      <c r="I44">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -6324,8 +7454,17 @@
       <c r="F45" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>479</v>
+      </c>
+      <c r="H45">
+        <v>6</v>
+      </c>
+      <c r="I45">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -6344,8 +7483,17 @@
       <c r="F46" s="2">
         <v>11</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>480</v>
+      </c>
+      <c r="H46">
+        <v>6</v>
+      </c>
+      <c r="I46">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -6364,8 +7512,17 @@
       <c r="F47" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>465</v>
+      </c>
+      <c r="H47">
+        <v>6</v>
+      </c>
+      <c r="I47">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -6384,8 +7541,17 @@
       <c r="F48" s="2">
         <v>2.5</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>481</v>
+      </c>
+      <c r="H48">
+        <v>6</v>
+      </c>
+      <c r="I48">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -6404,8 +7570,17 @@
       <c r="F49" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>482</v>
+      </c>
+      <c r="H49">
+        <v>6</v>
+      </c>
+      <c r="I49">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -6424,8 +7599,17 @@
       <c r="F50" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>465</v>
+      </c>
+      <c r="H50">
+        <v>6</v>
+      </c>
+      <c r="I50">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -6444,8 +7628,17 @@
       <c r="F51" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>483</v>
+      </c>
+      <c r="H51">
+        <v>6</v>
+      </c>
+      <c r="I51">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -6464,8 +7657,17 @@
       <c r="F52" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>456</v>
+      </c>
+      <c r="H52">
+        <v>6</v>
+      </c>
+      <c r="I52">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -6484,8 +7686,17 @@
       <c r="F53" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>484</v>
+      </c>
+      <c r="H53">
+        <v>8</v>
+      </c>
+      <c r="I53">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -6504,8 +7715,17 @@
       <c r="F54" s="2">
         <v>25</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>467</v>
+      </c>
+      <c r="H54">
+        <v>6</v>
+      </c>
+      <c r="I54">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -6524,8 +7744,17 @@
       <c r="F55" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>485</v>
+      </c>
+      <c r="H55">
+        <v>39</v>
+      </c>
+      <c r="I55">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -6544,8 +7773,17 @@
       <c r="F56" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>486</v>
+      </c>
+      <c r="H56">
+        <v>6</v>
+      </c>
+      <c r="I56">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -6564,8 +7802,17 @@
       <c r="F57" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>487</v>
+      </c>
+      <c r="H57">
+        <v>6</v>
+      </c>
+      <c r="I57">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -6584,8 +7831,17 @@
       <c r="F58" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>479</v>
+      </c>
+      <c r="H58">
+        <v>6</v>
+      </c>
+      <c r="I58">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -6604,8 +7860,17 @@
       <c r="F59" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>488</v>
+      </c>
+      <c r="H59">
+        <v>6</v>
+      </c>
+      <c r="I59">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -6624,8 +7889,17 @@
       <c r="F60" s="2">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>489</v>
+      </c>
+      <c r="H60">
+        <v>25</v>
+      </c>
+      <c r="I60">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -6644,8 +7918,17 @@
       <c r="F61" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61">
+        <v>6</v>
+      </c>
+      <c r="I61">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -6664,8 +7947,17 @@
       <c r="F62" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>491</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -6684,8 +7976,17 @@
       <c r="F63" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>492</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -6704,8 +8005,17 @@
       <c r="F64" s="2">
         <v>12.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>493</v>
+      </c>
+      <c r="H64">
+        <v>8</v>
+      </c>
+      <c r="I64">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -6724,8 +8034,17 @@
       <c r="F65" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>494</v>
+      </c>
+      <c r="H65">
+        <v>6</v>
+      </c>
+      <c r="I65">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -6744,8 +8063,17 @@
       <c r="F66" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>495</v>
+      </c>
+      <c r="H66">
+        <v>22</v>
+      </c>
+      <c r="I66">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -6764,8 +8092,17 @@
       <c r="F67" s="2">
         <v>15</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>455</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -6784,8 +8121,17 @@
       <c r="F68" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H68">
+        <v>8</v>
+      </c>
+      <c r="I68">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -6804,8 +8150,17 @@
       <c r="F69" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>497</v>
+      </c>
+      <c r="H69">
+        <v>8</v>
+      </c>
+      <c r="I69">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -6824,8 +8179,17 @@
       <c r="F70" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>498</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -6844,8 +8208,17 @@
       <c r="F71" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>499</v>
+      </c>
+      <c r="H71">
+        <v>8</v>
+      </c>
+      <c r="I71">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -6864,8 +8237,17 @@
       <c r="F72" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>500</v>
+      </c>
+      <c r="H72">
+        <v>22</v>
+      </c>
+      <c r="I72">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -6884,8 +8266,17 @@
       <c r="F73" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>501</v>
+      </c>
+      <c r="H73">
+        <v>22</v>
+      </c>
+      <c r="I73">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
@@ -6904,8 +8295,17 @@
       <c r="F74" s="2">
         <v>23</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>502</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -6924,8 +8324,17 @@
       <c r="F75" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>503</v>
+      </c>
+      <c r="H75">
+        <v>13.8</v>
+      </c>
+      <c r="I75">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>30</v>
       </c>
@@ -6944,8 +8353,17 @@
       <c r="F76" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>504</v>
+      </c>
+      <c r="H76">
+        <v>6</v>
+      </c>
+      <c r="I76">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -6964,8 +8382,17 @@
       <c r="F77" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>505</v>
+      </c>
+      <c r="H77">
+        <v>22</v>
+      </c>
+      <c r="I77">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -6984,8 +8411,17 @@
       <c r="F78" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>506</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -7004,8 +8440,17 @@
       <c r="F79" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>507</v>
+      </c>
+      <c r="H79">
+        <v>6</v>
+      </c>
+      <c r="I79">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -7024,8 +8469,17 @@
       <c r="F80" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>508</v>
+      </c>
+      <c r="H80">
+        <v>6</v>
+      </c>
+      <c r="I80">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -7044,8 +8498,17 @@
       <c r="F81" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>509</v>
+      </c>
+      <c r="H81">
+        <v>13.8</v>
+      </c>
+      <c r="I81">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -7064,8 +8527,17 @@
       <c r="F82" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>508</v>
+      </c>
+      <c r="H82">
+        <v>6</v>
+      </c>
+      <c r="I82">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -7084,8 +8556,17 @@
       <c r="F83" s="2">
         <v>21.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>510</v>
+      </c>
+      <c r="H83">
+        <v>6</v>
+      </c>
+      <c r="I83">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -7104,8 +8585,17 @@
       <c r="F84" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>511</v>
+      </c>
+      <c r="H84">
+        <v>6</v>
+      </c>
+      <c r="I84">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -7124,8 +8614,17 @@
       <c r="F85" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>512</v>
+      </c>
+      <c r="H85">
+        <v>6</v>
+      </c>
+      <c r="I85">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
@@ -7144,8 +8643,17 @@
       <c r="F86" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>513</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -7164,8 +8672,17 @@
       <c r="F87" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>514</v>
+      </c>
+      <c r="H87">
+        <v>39</v>
+      </c>
+      <c r="I87">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -7184,8 +8701,17 @@
       <c r="F88" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>515</v>
+      </c>
+      <c r="H88">
+        <v>6</v>
+      </c>
+      <c r="I88">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -7204,8 +8730,17 @@
       <c r="F89" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>516</v>
+      </c>
+      <c r="H89">
+        <v>6</v>
+      </c>
+      <c r="I89">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -7224,8 +8759,17 @@
       <c r="F90" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>517</v>
+      </c>
+      <c r="H90">
+        <v>8</v>
+      </c>
+      <c r="I90">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -7244,8 +8788,17 @@
       <c r="F91" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>518</v>
+      </c>
+      <c r="H91">
+        <v>6</v>
+      </c>
+      <c r="I91">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -7264,8 +8817,17 @@
       <c r="F92" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>519</v>
+      </c>
+      <c r="H92">
+        <v>6</v>
+      </c>
+      <c r="I92">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>22</v>
       </c>
@@ -7284,8 +8846,17 @@
       <c r="F93" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>520</v>
+      </c>
+      <c r="H93">
+        <v>8</v>
+      </c>
+      <c r="I93">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -7304,8 +8875,17 @@
       <c r="F94" s="2">
         <v>19.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>521</v>
+      </c>
+      <c r="H94">
+        <v>8</v>
+      </c>
+      <c r="I94">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -7324,8 +8904,17 @@
       <c r="F95" s="2">
         <v>2</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>522</v>
+      </c>
+      <c r="H95">
+        <v>6</v>
+      </c>
+      <c r="I95">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -7344,8 +8933,17 @@
       <c r="F96" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>523</v>
+      </c>
+      <c r="H96">
+        <v>6</v>
+      </c>
+      <c r="I96">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -7364,8 +8962,17 @@
       <c r="F97" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>524</v>
+      </c>
+      <c r="H97">
+        <v>22</v>
+      </c>
+      <c r="I97">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -7384,8 +8991,17 @@
       <c r="F98" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>525</v>
+      </c>
+      <c r="H98">
+        <v>22</v>
+      </c>
+      <c r="I98">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -7404,8 +9020,17 @@
       <c r="F99" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>455</v>
+      </c>
+      <c r="H99">
+        <v>6</v>
+      </c>
+      <c r="I99">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -7424,8 +9049,17 @@
       <c r="F100" s="2">
         <v>18.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>526</v>
+      </c>
+      <c r="H100">
+        <v>6</v>
+      </c>
+      <c r="I100">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -7444,8 +9078,17 @@
       <c r="F101" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>527</v>
+      </c>
+      <c r="H101">
+        <v>22</v>
+      </c>
+      <c r="I101">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -7464,8 +9107,17 @@
       <c r="F102" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>528</v>
+      </c>
+      <c r="H102">
+        <v>22</v>
+      </c>
+      <c r="I102">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -7484,8 +9136,17 @@
       <c r="F103" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>529</v>
+      </c>
+      <c r="H103">
+        <v>8</v>
+      </c>
+      <c r="I103">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>26</v>
       </c>
@@ -7504,8 +9165,17 @@
       <c r="F104" s="2">
         <v>16</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>530</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -7524,8 +9194,17 @@
       <c r="F105" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>531</v>
+      </c>
+      <c r="H105">
+        <v>8</v>
+      </c>
+      <c r="I105">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>26</v>
       </c>
@@ -7544,8 +9223,17 @@
       <c r="F106" s="2">
         <v>14</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>532</v>
+      </c>
+      <c r="H106">
+        <v>22</v>
+      </c>
+      <c r="I106">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -7564,8 +9252,17 @@
       <c r="F107" s="2">
         <v>12</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>533</v>
+      </c>
+      <c r="H107">
+        <v>8</v>
+      </c>
+      <c r="I107">
+        <v>13.8</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
@@ -7584,8 +9281,17 @@
       <c r="F108" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>534</v>
+      </c>
+      <c r="H108">
+        <v>22</v>
+      </c>
+      <c r="I108">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -7604,8 +9310,17 @@
       <c r="F109" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>535</v>
+      </c>
+      <c r="H109">
+        <v>6</v>
+      </c>
+      <c r="I109">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -7624,8 +9339,17 @@
       <c r="F110" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>525</v>
+      </c>
+      <c r="H110">
+        <v>22</v>
+      </c>
+      <c r="I110">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -7644,8 +9368,17 @@
       <c r="F111" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>536</v>
+      </c>
+      <c r="H111">
+        <v>6</v>
+      </c>
+      <c r="I111">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -7664,8 +9397,17 @@
       <c r="F112" s="2">
         <v>23.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>537</v>
+      </c>
+      <c r="H112">
+        <v>6</v>
+      </c>
+      <c r="I112">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
@@ -7684,8 +9426,17 @@
       <c r="F113" s="2">
         <v>17.5</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>538</v>
+      </c>
+      <c r="H113">
+        <v>13.8</v>
+      </c>
+      <c r="I113">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -7704,8 +9455,17 @@
       <c r="F114" s="2">
         <v>14.5</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>539</v>
+      </c>
+      <c r="H114">
+        <v>6</v>
+      </c>
+      <c r="I114">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -7724,8 +9484,17 @@
       <c r="F115" s="2">
         <v>24.5</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>540</v>
+      </c>
+      <c r="H115">
+        <v>6</v>
+      </c>
+      <c r="I115">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -7744,8 +9513,17 @@
       <c r="F116" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>541</v>
+      </c>
+      <c r="H116">
+        <v>6</v>
+      </c>
+      <c r="I116">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -7764,8 +9542,17 @@
       <c r="F117" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>542</v>
+      </c>
+      <c r="H117">
+        <v>6</v>
+      </c>
+      <c r="I117">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -7784,8 +9571,17 @@
       <c r="F118" s="2">
         <v>15.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>543</v>
+      </c>
+      <c r="H118">
+        <v>25.2</v>
+      </c>
+      <c r="I118">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -7804,8 +9600,17 @@
       <c r="F119" s="2">
         <v>19</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>544</v>
+      </c>
+      <c r="H119">
+        <v>6</v>
+      </c>
+      <c r="I119">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -7824,8 +9629,17 @@
       <c r="F120" s="2">
         <v>13</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>452</v>
+      </c>
+      <c r="H120">
+        <v>8</v>
+      </c>
+      <c r="I120">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
@@ -7844,8 +9658,17 @@
       <c r="F121" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>545</v>
+      </c>
+      <c r="H121">
+        <v>39</v>
+      </c>
+      <c r="I121">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -7864,8 +9687,17 @@
       <c r="F122" s="2">
         <v>16.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>546</v>
+      </c>
+      <c r="H122">
+        <v>25</v>
+      </c>
+      <c r="I122">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -7884,8 +9716,17 @@
       <c r="F123" s="2">
         <v>20</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>547</v>
+      </c>
+      <c r="H123">
+        <v>25</v>
+      </c>
+      <c r="I123">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
@@ -7904,8 +9745,17 @@
       <c r="F124" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>548</v>
+      </c>
+      <c r="H124">
+        <v>22</v>
+      </c>
+      <c r="I124">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>40</v>
       </c>
@@ -7924,8 +9774,17 @@
       <c r="F125" s="2">
         <v>18</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>549</v>
+      </c>
+      <c r="H125">
+        <v>25</v>
+      </c>
+      <c r="I125">
+        <v>25.2</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
@@ -7944,8 +9803,17 @@
       <c r="F126" s="2">
         <v>20.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>550</v>
+      </c>
+      <c r="H126">
+        <v>25.2</v>
+      </c>
+      <c r="I126">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -7963,6 +9831,15 @@
       </c>
       <c r="F127" s="2">
         <v>19.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>551</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
@@ -7976,9 +9853,11 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A470AD75-E322-4054-B596-F403FC1CB14B}">
-  <dimension ref="A1:F127"/>
+  <dimension ref="A1:I127"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="D13" workbookViewId="0">
+      <selection activeCell="F35" sqref="F35"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
@@ -7987,9 +9866,10 @@
     <col min="3" max="3" width="23.375" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="65.875" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="6" width="5.125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="80.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>49</v>
       </c>
@@ -8008,8 +9888,17 @@
       <c r="F1" s="1" t="s">
         <v>411</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G1" s="4" t="s">
+        <v>439</v>
+      </c>
+      <c r="H1" s="4" t="s">
+        <v>552</v>
+      </c>
+      <c r="I1" s="4" t="s">
+        <v>553</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="2" t="s">
         <v>45</v>
       </c>
@@ -8028,8 +9917,17 @@
       <c r="F2" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G2" t="s">
+        <v>440</v>
+      </c>
+      <c r="H2">
+        <v>10.5</v>
+      </c>
+      <c r="I2">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="2" t="s">
         <v>45</v>
       </c>
@@ -8048,8 +9946,17 @@
       <c r="F3" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G3" t="s">
+        <v>441</v>
+      </c>
+      <c r="H3">
+        <v>10.5</v>
+      </c>
+      <c r="I3">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
@@ -8068,8 +9975,17 @@
       <c r="F4" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G4" t="s">
+        <v>442</v>
+      </c>
+      <c r="H4">
+        <v>8</v>
+      </c>
+      <c r="I4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
         <v>37</v>
       </c>
@@ -8088,8 +10004,17 @@
       <c r="F5" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G5" t="s">
+        <v>443</v>
+      </c>
+      <c r="H5">
+        <v>6.5</v>
+      </c>
+      <c r="I5">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
         <v>34</v>
       </c>
@@ -8108,8 +10033,17 @@
       <c r="F6" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G6" t="s">
+        <v>444</v>
+      </c>
+      <c r="H6">
+        <v>10.5</v>
+      </c>
+      <c r="I6">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="2" t="s">
         <v>34</v>
       </c>
@@ -8128,8 +10062,17 @@
       <c r="F7" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G7" t="s">
+        <v>445</v>
+      </c>
+      <c r="H7">
+        <v>8</v>
+      </c>
+      <c r="I7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="2" t="s">
         <v>34</v>
       </c>
@@ -8148,8 +10091,17 @@
       <c r="F8" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G8" t="s">
+        <v>446</v>
+      </c>
+      <c r="H8">
+        <v>8</v>
+      </c>
+      <c r="I8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="2" t="s">
         <v>34</v>
       </c>
@@ -8168,8 +10120,17 @@
       <c r="F9" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G9" t="s">
+        <v>447</v>
+      </c>
+      <c r="H9">
+        <v>10.5</v>
+      </c>
+      <c r="I9">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="2" t="s">
         <v>36</v>
       </c>
@@ -8188,8 +10149,17 @@
       <c r="F10" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G10" t="s">
+        <v>448</v>
+      </c>
+      <c r="H10">
+        <v>10.5</v>
+      </c>
+      <c r="I10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="2" t="s">
         <v>36</v>
       </c>
@@ -8208,8 +10178,17 @@
       <c r="F11" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G11" t="s">
+        <v>449</v>
+      </c>
+      <c r="H11">
+        <v>6.5</v>
+      </c>
+      <c r="I11">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="2" t="s">
         <v>36</v>
       </c>
@@ -8228,8 +10207,17 @@
       <c r="F12" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G12" t="s">
+        <v>450</v>
+      </c>
+      <c r="H12">
+        <v>6.5</v>
+      </c>
+      <c r="I12">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="2" t="s">
         <v>38</v>
       </c>
@@ -8248,8 +10236,17 @@
       <c r="F13" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G13" t="s">
+        <v>451</v>
+      </c>
+      <c r="H13">
+        <v>8</v>
+      </c>
+      <c r="I13">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="2" t="s">
         <v>38</v>
       </c>
@@ -8268,8 +10265,17 @@
       <c r="F14" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G14" t="s">
+        <v>452</v>
+      </c>
+      <c r="H14">
+        <v>23</v>
+      </c>
+      <c r="I14">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="2" t="s">
         <v>38</v>
       </c>
@@ -8288,8 +10294,17 @@
       <c r="F15" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G15" t="s">
+        <v>453</v>
+      </c>
+      <c r="H15">
+        <v>8</v>
+      </c>
+      <c r="I15">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="2" t="s">
         <v>11</v>
       </c>
@@ -8308,8 +10323,17 @@
       <c r="F16" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G16" t="s">
+        <v>454</v>
+      </c>
+      <c r="H16">
+        <v>6.5</v>
+      </c>
+      <c r="I16">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="2" t="s">
         <v>11</v>
       </c>
@@ -8328,8 +10352,17 @@
       <c r="F17" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G17" t="s">
+        <v>455</v>
+      </c>
+      <c r="H17">
+        <v>18</v>
+      </c>
+      <c r="I17">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="2" t="s">
         <v>11</v>
       </c>
@@ -8348,8 +10381,17 @@
       <c r="F18" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G18" t="s">
+        <v>456</v>
+      </c>
+      <c r="H18">
+        <v>6.5</v>
+      </c>
+      <c r="I18">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="2" t="s">
         <v>11</v>
       </c>
@@ -8368,8 +10410,17 @@
       <c r="F19" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G19" t="s">
+        <v>457</v>
+      </c>
+      <c r="H19">
+        <v>6.5</v>
+      </c>
+      <c r="I19">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="2" t="s">
         <v>5</v>
       </c>
@@ -8388,8 +10439,17 @@
       <c r="F20" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G20" t="s">
+        <v>458</v>
+      </c>
+      <c r="H20">
+        <v>8</v>
+      </c>
+      <c r="I20">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="2" t="s">
         <v>5</v>
       </c>
@@ -8408,8 +10468,17 @@
       <c r="F21" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G21" t="s">
+        <v>459</v>
+      </c>
+      <c r="H21">
+        <v>6.5</v>
+      </c>
+      <c r="I21">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="2" t="s">
         <v>5</v>
       </c>
@@ -8428,8 +10497,17 @@
       <c r="F22" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G22" t="s">
+        <v>460</v>
+      </c>
+      <c r="H22">
+        <v>6.5</v>
+      </c>
+      <c r="I22">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="2" t="s">
         <v>5</v>
       </c>
@@ -8448,8 +10526,17 @@
       <c r="F23" s="2">
         <v>5</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G23" t="s">
+        <v>461</v>
+      </c>
+      <c r="H23">
+        <v>6.5</v>
+      </c>
+      <c r="I23">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="2" t="s">
         <v>19</v>
       </c>
@@ -8468,8 +10555,17 @@
       <c r="F24" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G24" t="s">
+        <v>462</v>
+      </c>
+      <c r="H24">
+        <v>6.5</v>
+      </c>
+      <c r="I24">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="2" t="s">
         <v>19</v>
       </c>
@@ -8488,8 +10584,17 @@
       <c r="F25" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G25" t="s">
+        <v>463</v>
+      </c>
+      <c r="H25">
+        <v>6.5</v>
+      </c>
+      <c r="I25">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="2" t="s">
         <v>19</v>
       </c>
@@ -8508,8 +10613,17 @@
       <c r="F26" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G26" t="s">
+        <v>464</v>
+      </c>
+      <c r="H26">
+        <v>6.5</v>
+      </c>
+      <c r="I26">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="2" t="s">
         <v>4</v>
       </c>
@@ -8528,8 +10642,17 @@
       <c r="F27" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G27" t="s">
+        <v>465</v>
+      </c>
+      <c r="H27">
+        <v>6.5</v>
+      </c>
+      <c r="I27">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="2" t="s">
         <v>4</v>
       </c>
@@ -8548,8 +10671,17 @@
       <c r="F28" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G28" t="s">
+        <v>456</v>
+      </c>
+      <c r="H28">
+        <v>6.5</v>
+      </c>
+      <c r="I28">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="2" t="s">
         <v>4</v>
       </c>
@@ -8568,8 +10700,17 @@
       <c r="F29" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G29" t="s">
+        <v>466</v>
+      </c>
+      <c r="H29">
+        <v>6.5</v>
+      </c>
+      <c r="I29">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="2" t="s">
         <v>4</v>
       </c>
@@ -8588,8 +10729,17 @@
       <c r="F30" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G30" t="s">
+        <v>465</v>
+      </c>
+      <c r="H30">
+        <v>6.5</v>
+      </c>
+      <c r="I30">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="2" t="s">
         <v>8</v>
       </c>
@@ -8608,8 +10758,17 @@
       <c r="F31" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G31" t="s">
+        <v>467</v>
+      </c>
+      <c r="H31">
+        <v>6.5</v>
+      </c>
+      <c r="I31">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="2" t="s">
         <v>8</v>
       </c>
@@ -8628,8 +10787,17 @@
       <c r="F32" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G32" t="s">
+        <v>468</v>
+      </c>
+      <c r="H32">
+        <v>8</v>
+      </c>
+      <c r="I32">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="2" t="s">
         <v>8</v>
       </c>
@@ -8648,8 +10816,17 @@
       <c r="F33" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G33" t="s">
+        <v>469</v>
+      </c>
+      <c r="H33">
+        <v>6.5</v>
+      </c>
+      <c r="I33">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="2" t="s">
         <v>8</v>
       </c>
@@ -8668,8 +10845,17 @@
       <c r="F34" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G34" t="s">
+        <v>470</v>
+      </c>
+      <c r="H34">
+        <v>6.5</v>
+      </c>
+      <c r="I34">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="2" t="s">
         <v>7</v>
       </c>
@@ -8688,8 +10874,17 @@
       <c r="F35" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G35" t="s">
+        <v>471</v>
+      </c>
+      <c r="H35">
+        <v>6.5</v>
+      </c>
+      <c r="I35">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="2" t="s">
         <v>7</v>
       </c>
@@ -8708,8 +10903,17 @@
       <c r="F36" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G36" t="s">
+        <v>472</v>
+      </c>
+      <c r="H36">
+        <v>6.5</v>
+      </c>
+      <c r="I36">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
         <v>7</v>
       </c>
@@ -8728,8 +10932,17 @@
       <c r="F37" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G37" t="s">
+        <v>463</v>
+      </c>
+      <c r="H37">
+        <v>6.5</v>
+      </c>
+      <c r="I37">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="2" t="s">
         <v>7</v>
       </c>
@@ -8748,8 +10961,17 @@
       <c r="F38" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G38" t="s">
+        <v>473</v>
+      </c>
+      <c r="H38">
+        <v>6.5</v>
+      </c>
+      <c r="I38">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="2" t="s">
         <v>31</v>
       </c>
@@ -8768,8 +10990,17 @@
       <c r="F39" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G39" t="s">
+        <v>474</v>
+      </c>
+      <c r="H39">
+        <v>6.5</v>
+      </c>
+      <c r="I39">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="2" t="s">
         <v>31</v>
       </c>
@@ -8788,8 +11019,17 @@
       <c r="F40" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G40" t="s">
+        <v>475</v>
+      </c>
+      <c r="H40">
+        <v>6.5</v>
+      </c>
+      <c r="I40">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="2" t="s">
         <v>13</v>
       </c>
@@ -8808,8 +11048,17 @@
       <c r="F41" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G41" t="s">
+        <v>476</v>
+      </c>
+      <c r="H41">
+        <v>6.5</v>
+      </c>
+      <c r="I41">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="2" t="s">
         <v>13</v>
       </c>
@@ -8828,8 +11077,17 @@
       <c r="F42" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G42" t="s">
+        <v>477</v>
+      </c>
+      <c r="H42">
+        <v>8</v>
+      </c>
+      <c r="I42">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="2" t="s">
         <v>13</v>
       </c>
@@ -8848,8 +11106,17 @@
       <c r="F43" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G43" t="s">
+        <v>456</v>
+      </c>
+      <c r="H43">
+        <v>6.5</v>
+      </c>
+      <c r="I43">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="2" t="s">
         <v>13</v>
       </c>
@@ -8868,8 +11135,17 @@
       <c r="F44" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G44" t="s">
+        <v>478</v>
+      </c>
+      <c r="H44">
+        <v>6.5</v>
+      </c>
+      <c r="I44">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="2" t="s">
         <v>10</v>
       </c>
@@ -8888,8 +11164,17 @@
       <c r="F45" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G45" t="s">
+        <v>479</v>
+      </c>
+      <c r="H45">
+        <v>8</v>
+      </c>
+      <c r="I45">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="2" t="s">
         <v>10</v>
       </c>
@@ -8908,8 +11193,17 @@
       <c r="F46" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G46" t="s">
+        <v>480</v>
+      </c>
+      <c r="H46">
+        <v>6.5</v>
+      </c>
+      <c r="I46">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="2" t="s">
         <v>10</v>
       </c>
@@ -8928,8 +11222,17 @@
       <c r="F47" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G47" t="s">
+        <v>465</v>
+      </c>
+      <c r="H47">
+        <v>6.5</v>
+      </c>
+      <c r="I47">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="2" t="s">
         <v>33</v>
       </c>
@@ -8948,8 +11251,17 @@
       <c r="F48" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G48" t="s">
+        <v>481</v>
+      </c>
+      <c r="H48">
+        <v>21.1</v>
+      </c>
+      <c r="I48">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="2" t="s">
         <v>33</v>
       </c>
@@ -8968,8 +11280,17 @@
       <c r="F49" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G49" t="s">
+        <v>482</v>
+      </c>
+      <c r="H49">
+        <v>18</v>
+      </c>
+      <c r="I49">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="2" t="s">
         <v>6</v>
       </c>
@@ -8988,8 +11309,17 @@
       <c r="F50" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G50" t="s">
+        <v>465</v>
+      </c>
+      <c r="H50">
+        <v>6.5</v>
+      </c>
+      <c r="I50">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="2" t="s">
         <v>6</v>
       </c>
@@ -9008,8 +11338,17 @@
       <c r="F51" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G51" t="s">
+        <v>483</v>
+      </c>
+      <c r="H51">
+        <v>6.5</v>
+      </c>
+      <c r="I51">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="2" t="s">
         <v>6</v>
       </c>
@@ -9028,8 +11367,17 @@
       <c r="F52" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G52" t="s">
+        <v>456</v>
+      </c>
+      <c r="H52">
+        <v>6.5</v>
+      </c>
+      <c r="I52">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="2" t="s">
         <v>6</v>
       </c>
@@ -9048,8 +11396,17 @@
       <c r="F53" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G53" t="s">
+        <v>484</v>
+      </c>
+      <c r="H53">
+        <v>6.5</v>
+      </c>
+      <c r="I53">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="2" t="s">
         <v>9</v>
       </c>
@@ -9068,8 +11425,17 @@
       <c r="F54" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G54" t="s">
+        <v>467</v>
+      </c>
+      <c r="H54">
+        <v>6.5</v>
+      </c>
+      <c r="I54">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="2" t="s">
         <v>9</v>
       </c>
@@ -9088,8 +11454,17 @@
       <c r="F55" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G55" t="s">
+        <v>485</v>
+      </c>
+      <c r="H55">
+        <v>8</v>
+      </c>
+      <c r="I55">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="2" t="s">
         <v>9</v>
       </c>
@@ -9108,8 +11483,17 @@
       <c r="F56" s="2">
         <v>10.5</v>
       </c>
-    </row>
-    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G56" t="s">
+        <v>486</v>
+      </c>
+      <c r="H56">
+        <v>6.5</v>
+      </c>
+      <c r="I56">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="2" t="s">
         <v>9</v>
       </c>
@@ -9128,8 +11512,17 @@
       <c r="F57" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G57" t="s">
+        <v>487</v>
+      </c>
+      <c r="H57">
+        <v>6.5</v>
+      </c>
+      <c r="I57">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="2" t="s">
         <v>24</v>
       </c>
@@ -9148,8 +11541,17 @@
       <c r="F58" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G58" t="s">
+        <v>479</v>
+      </c>
+      <c r="H58">
+        <v>8</v>
+      </c>
+      <c r="I58">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="2" t="s">
         <v>24</v>
       </c>
@@ -9168,8 +11570,17 @@
       <c r="F59" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G59" t="s">
+        <v>488</v>
+      </c>
+      <c r="H59">
+        <v>6.5</v>
+      </c>
+      <c r="I59">
+        <v>22.8</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="2" t="s">
         <v>18</v>
       </c>
@@ -9188,8 +11599,17 @@
       <c r="F60" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G60" t="s">
+        <v>489</v>
+      </c>
+      <c r="H60">
+        <v>10.5</v>
+      </c>
+      <c r="I60">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="2" t="s">
         <v>18</v>
       </c>
@@ -9208,8 +11628,17 @@
       <c r="F61" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G61" t="s">
+        <v>490</v>
+      </c>
+      <c r="H61">
+        <v>6.5</v>
+      </c>
+      <c r="I61">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="2" t="s">
         <v>29</v>
       </c>
@@ -9228,8 +11657,17 @@
       <c r="F62" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G62" t="s">
+        <v>491</v>
+      </c>
+      <c r="H62">
+        <v>8</v>
+      </c>
+      <c r="I62">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="2" t="s">
         <v>29</v>
       </c>
@@ -9248,8 +11686,17 @@
       <c r="F63" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G63" t="s">
+        <v>492</v>
+      </c>
+      <c r="H63">
+        <v>8</v>
+      </c>
+      <c r="I63">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="2" t="s">
         <v>29</v>
       </c>
@@ -9268,8 +11715,17 @@
       <c r="F64" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="65" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G64" t="s">
+        <v>493</v>
+      </c>
+      <c r="H64">
+        <v>6.5</v>
+      </c>
+      <c r="I64">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="2" t="s">
         <v>32</v>
       </c>
@@ -9288,8 +11744,17 @@
       <c r="F65" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="66" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G65" t="s">
+        <v>494</v>
+      </c>
+      <c r="H65">
+        <v>8</v>
+      </c>
+      <c r="I65">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="2" t="s">
         <v>32</v>
       </c>
@@ -9308,8 +11773,17 @@
       <c r="F66" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="67" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G66" t="s">
+        <v>495</v>
+      </c>
+      <c r="H66">
+        <v>6.5</v>
+      </c>
+      <c r="I66">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="2" t="s">
         <v>32</v>
       </c>
@@ -9328,8 +11802,17 @@
       <c r="F67" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="68" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G67" t="s">
+        <v>455</v>
+      </c>
+      <c r="H67">
+        <v>18</v>
+      </c>
+      <c r="I67">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="2" t="s">
         <v>21</v>
       </c>
@@ -9348,8 +11831,17 @@
       <c r="F68" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="69" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G68" t="s">
+        <v>496</v>
+      </c>
+      <c r="H68">
+        <v>6.5</v>
+      </c>
+      <c r="I68">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="2" t="s">
         <v>21</v>
       </c>
@@ -9368,8 +11860,17 @@
       <c r="F69" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="70" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G69" t="s">
+        <v>497</v>
+      </c>
+      <c r="H69">
+        <v>6.5</v>
+      </c>
+      <c r="I69">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="2" t="s">
         <v>21</v>
       </c>
@@ -9388,8 +11889,17 @@
       <c r="F70" s="2">
         <v>6.5</v>
       </c>
-    </row>
-    <row r="71" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G70" t="s">
+        <v>498</v>
+      </c>
+      <c r="H70">
+        <v>6.5</v>
+      </c>
+      <c r="I70">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="2" t="s">
         <v>17</v>
       </c>
@@ -9408,8 +11918,17 @@
       <c r="F71" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="72" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G71" t="s">
+        <v>499</v>
+      </c>
+      <c r="H71">
+        <v>6.5</v>
+      </c>
+      <c r="I71">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="2" t="s">
         <v>17</v>
       </c>
@@ -9428,8 +11947,17 @@
       <c r="F72" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G72" t="s">
+        <v>500</v>
+      </c>
+      <c r="H72">
+        <v>6.5</v>
+      </c>
+      <c r="I72">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="2" t="s">
         <v>17</v>
       </c>
@@ -9448,8 +11976,17 @@
       <c r="F73" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="74" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G73" t="s">
+        <v>501</v>
+      </c>
+      <c r="H73">
+        <v>6.5</v>
+      </c>
+      <c r="I73">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="2" t="s">
         <v>17</v>
       </c>
@@ -9468,8 +12005,17 @@
       <c r="F74" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="75" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G74" t="s">
+        <v>502</v>
+      </c>
+      <c r="H74">
+        <v>8</v>
+      </c>
+      <c r="I74">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="2" t="s">
         <v>30</v>
       </c>
@@ -9488,8 +12034,17 @@
       <c r="F75" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="76" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G75" t="s">
+        <v>503</v>
+      </c>
+      <c r="H75">
+        <v>8</v>
+      </c>
+      <c r="I75">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="2" t="s">
         <v>30</v>
       </c>
@@ -9508,8 +12063,17 @@
       <c r="F76" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="77" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G76" t="s">
+        <v>504</v>
+      </c>
+      <c r="H76">
+        <v>6.5</v>
+      </c>
+      <c r="I76">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="2" t="s">
         <v>30</v>
       </c>
@@ -9528,8 +12092,17 @@
       <c r="F77" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="78" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G77" t="s">
+        <v>505</v>
+      </c>
+      <c r="H77">
+        <v>6.5</v>
+      </c>
+      <c r="I77">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="2" t="s">
         <v>12</v>
       </c>
@@ -9548,8 +12121,17 @@
       <c r="F78" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="79" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G78" t="s">
+        <v>506</v>
+      </c>
+      <c r="H78">
+        <v>8</v>
+      </c>
+      <c r="I78">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="2" t="s">
         <v>12</v>
       </c>
@@ -9568,8 +12150,17 @@
       <c r="F79" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="80" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G79" t="s">
+        <v>507</v>
+      </c>
+      <c r="H79">
+        <v>6.5</v>
+      </c>
+      <c r="I79">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="2" t="s">
         <v>12</v>
       </c>
@@ -9588,8 +12179,17 @@
       <c r="F80" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G80" t="s">
+        <v>508</v>
+      </c>
+      <c r="H80">
+        <v>6.5</v>
+      </c>
+      <c r="I80">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="2" t="s">
         <v>14</v>
       </c>
@@ -9608,8 +12208,17 @@
       <c r="F81" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G81" t="s">
+        <v>509</v>
+      </c>
+      <c r="H81">
+        <v>8</v>
+      </c>
+      <c r="I81">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="2" t="s">
         <v>14</v>
       </c>
@@ -9628,8 +12237,17 @@
       <c r="F82" s="2">
         <v>11.5</v>
       </c>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G82" t="s">
+        <v>508</v>
+      </c>
+      <c r="H82">
+        <v>6.5</v>
+      </c>
+      <c r="I82">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="2" t="s">
         <v>25</v>
       </c>
@@ -9648,8 +12266,17 @@
       <c r="F83" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G83" t="s">
+        <v>510</v>
+      </c>
+      <c r="H83">
+        <v>6.5</v>
+      </c>
+      <c r="I83">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="2" t="s">
         <v>25</v>
       </c>
@@ -9668,8 +12295,17 @@
       <c r="F84" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G84" t="s">
+        <v>511</v>
+      </c>
+      <c r="H84">
+        <v>6.5</v>
+      </c>
+      <c r="I84">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="2" t="s">
         <v>25</v>
       </c>
@@ -9688,8 +12324,17 @@
       <c r="F85" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G85" t="s">
+        <v>512</v>
+      </c>
+      <c r="H85">
+        <v>6.5</v>
+      </c>
+      <c r="I85">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="2" t="s">
         <v>20</v>
       </c>
@@ -9708,8 +12353,17 @@
       <c r="F86" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G86" t="s">
+        <v>513</v>
+      </c>
+      <c r="H86">
+        <v>8</v>
+      </c>
+      <c r="I86">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="2" t="s">
         <v>20</v>
       </c>
@@ -9728,8 +12382,17 @@
       <c r="F87" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G87" t="s">
+        <v>514</v>
+      </c>
+      <c r="H87">
+        <v>8</v>
+      </c>
+      <c r="I87">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="2" t="s">
         <v>20</v>
       </c>
@@ -9748,8 +12411,17 @@
       <c r="F88" s="2">
         <v>4</v>
       </c>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G88" t="s">
+        <v>515</v>
+      </c>
+      <c r="H88">
+        <v>6.5</v>
+      </c>
+      <c r="I88">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="2" t="s">
         <v>20</v>
       </c>
@@ -9768,8 +12440,17 @@
       <c r="F89" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G89" t="s">
+        <v>516</v>
+      </c>
+      <c r="H89">
+        <v>6.5</v>
+      </c>
+      <c r="I89">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="2" t="s">
         <v>43</v>
       </c>
@@ -9788,8 +12469,17 @@
       <c r="F90" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G90" t="s">
+        <v>517</v>
+      </c>
+      <c r="H90">
+        <v>6.5</v>
+      </c>
+      <c r="I90">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="2" t="s">
         <v>22</v>
       </c>
@@ -9808,8 +12498,17 @@
       <c r="F91" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G91" t="s">
+        <v>518</v>
+      </c>
+      <c r="H91">
+        <v>6.5</v>
+      </c>
+      <c r="I91">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="2" t="s">
         <v>22</v>
       </c>
@@ -9828,8 +12527,17 @@
       <c r="F92" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G92" t="s">
+        <v>519</v>
+      </c>
+      <c r="H92">
+        <v>6.5</v>
+      </c>
+      <c r="I92">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="2" t="s">
         <v>22</v>
       </c>
@@ -9848,8 +12556,17 @@
       <c r="F93" s="2">
         <v>7</v>
       </c>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G93" t="s">
+        <v>520</v>
+      </c>
+      <c r="H93">
+        <v>6.5</v>
+      </c>
+      <c r="I93">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="2" t="s">
         <v>27</v>
       </c>
@@ -9868,8 +12585,17 @@
       <c r="F94" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G94" t="s">
+        <v>521</v>
+      </c>
+      <c r="H94">
+        <v>6.5</v>
+      </c>
+      <c r="I94">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="2" t="s">
         <v>27</v>
       </c>
@@ -9888,8 +12614,17 @@
       <c r="F95" s="2">
         <v>3</v>
       </c>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G95" t="s">
+        <v>522</v>
+      </c>
+      <c r="H95">
+        <v>8</v>
+      </c>
+      <c r="I95">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="2" t="s">
         <v>27</v>
       </c>
@@ -9908,8 +12643,17 @@
       <c r="F96" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G96" t="s">
+        <v>523</v>
+      </c>
+      <c r="H96">
+        <v>6.5</v>
+      </c>
+      <c r="I96">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="2" t="s">
         <v>27</v>
       </c>
@@ -9928,8 +12672,17 @@
       <c r="F97" s="2">
         <v>5.5</v>
       </c>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G97" t="s">
+        <v>524</v>
+      </c>
+      <c r="H97">
+        <v>6.5</v>
+      </c>
+      <c r="I97">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="2" t="s">
         <v>42</v>
       </c>
@@ -9948,8 +12701,17 @@
       <c r="F98" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G98" t="s">
+        <v>525</v>
+      </c>
+      <c r="H98">
+        <v>6.5</v>
+      </c>
+      <c r="I98">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="2" t="s">
         <v>44</v>
       </c>
@@ -9968,8 +12730,17 @@
       <c r="F99" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G99" t="s">
+        <v>455</v>
+      </c>
+      <c r="H99">
+        <v>18</v>
+      </c>
+      <c r="I99">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="2" t="s">
         <v>23</v>
       </c>
@@ -9988,8 +12759,17 @@
       <c r="F100" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G100" t="s">
+        <v>526</v>
+      </c>
+      <c r="H100">
+        <v>6.5</v>
+      </c>
+      <c r="I100">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="2" t="s">
         <v>23</v>
       </c>
@@ -10008,8 +12788,17 @@
       <c r="F101" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G101" t="s">
+        <v>527</v>
+      </c>
+      <c r="H101">
+        <v>6.5</v>
+      </c>
+      <c r="I101">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="2" t="s">
         <v>23</v>
       </c>
@@ -10028,8 +12817,17 @@
       <c r="F102" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G102" t="s">
+        <v>528</v>
+      </c>
+      <c r="H102">
+        <v>6.5</v>
+      </c>
+      <c r="I102">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="2" t="s">
         <v>23</v>
       </c>
@@ -10048,8 +12846,17 @@
       <c r="F103" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G103" t="s">
+        <v>529</v>
+      </c>
+      <c r="H103">
+        <v>6.5</v>
+      </c>
+      <c r="I103">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="2" t="s">
         <v>26</v>
       </c>
@@ -10068,8 +12875,17 @@
       <c r="F104" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G104" t="s">
+        <v>530</v>
+      </c>
+      <c r="H104">
+        <v>8</v>
+      </c>
+      <c r="I104">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="2" t="s">
         <v>26</v>
       </c>
@@ -10088,8 +12904,17 @@
       <c r="F105" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G105" t="s">
+        <v>531</v>
+      </c>
+      <c r="H105">
+        <v>6.5</v>
+      </c>
+      <c r="I105">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="2" t="s">
         <v>26</v>
       </c>
@@ -10108,8 +12933,17 @@
       <c r="F106" s="2">
         <v>8</v>
       </c>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G106" t="s">
+        <v>532</v>
+      </c>
+      <c r="H106">
+        <v>6.5</v>
+      </c>
+      <c r="I106">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="2" t="s">
         <v>35</v>
       </c>
@@ -10128,8 +12962,17 @@
       <c r="F107" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G107" t="s">
+        <v>533</v>
+      </c>
+      <c r="H107">
+        <v>22.8</v>
+      </c>
+      <c r="I107">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="2" t="s">
         <v>35</v>
       </c>
@@ -10148,8 +12991,17 @@
       <c r="F108" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G108" t="s">
+        <v>534</v>
+      </c>
+      <c r="H108">
+        <v>6.5</v>
+      </c>
+      <c r="I108">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="2" t="s">
         <v>15</v>
       </c>
@@ -10168,8 +13020,17 @@
       <c r="F109" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G109" t="s">
+        <v>535</v>
+      </c>
+      <c r="H109">
+        <v>6.5</v>
+      </c>
+      <c r="I109">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="2" t="s">
         <v>15</v>
       </c>
@@ -10188,8 +13049,17 @@
       <c r="F110" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G110" t="s">
+        <v>525</v>
+      </c>
+      <c r="H110">
+        <v>6.5</v>
+      </c>
+      <c r="I110">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="2" t="s">
         <v>15</v>
       </c>
@@ -10208,8 +13078,17 @@
       <c r="F111" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G111" t="s">
+        <v>536</v>
+      </c>
+      <c r="H111">
+        <v>6.5</v>
+      </c>
+      <c r="I111">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="2" t="s">
         <v>15</v>
       </c>
@@ -10228,8 +13107,17 @@
       <c r="F112" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="113" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G112" t="s">
+        <v>537</v>
+      </c>
+      <c r="H112">
+        <v>6.5</v>
+      </c>
+      <c r="I112">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="113" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A113" s="2" t="s">
         <v>28</v>
       </c>
@@ -10248,8 +13136,17 @@
       <c r="F113" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="114" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G113" t="s">
+        <v>538</v>
+      </c>
+      <c r="H113">
+        <v>6.5</v>
+      </c>
+      <c r="I113">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="114" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A114" s="2" t="s">
         <v>28</v>
       </c>
@@ -10268,8 +13165,17 @@
       <c r="F114" s="2">
         <v>6</v>
       </c>
-    </row>
-    <row r="115" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G114" t="s">
+        <v>539</v>
+      </c>
+      <c r="H114">
+        <v>6.5</v>
+      </c>
+      <c r="I114">
+        <v>21.1</v>
+      </c>
+    </row>
+    <row r="115" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A115" s="2" t="s">
         <v>16</v>
       </c>
@@ -10288,8 +13194,17 @@
       <c r="F115" s="2">
         <v>9</v>
       </c>
-    </row>
-    <row r="116" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G115" t="s">
+        <v>540</v>
+      </c>
+      <c r="H115">
+        <v>6.5</v>
+      </c>
+      <c r="I115">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="116" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A116" s="2" t="s">
         <v>16</v>
       </c>
@@ -10308,8 +13223,17 @@
       <c r="F116" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="117" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G116" t="s">
+        <v>541</v>
+      </c>
+      <c r="H116">
+        <v>6.5</v>
+      </c>
+      <c r="I116">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="117" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A117" s="2" t="s">
         <v>16</v>
       </c>
@@ -10328,8 +13252,17 @@
       <c r="F117" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="118" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G117" t="s">
+        <v>542</v>
+      </c>
+      <c r="H117">
+        <v>6.5</v>
+      </c>
+      <c r="I117">
+        <v>27.4</v>
+      </c>
+    </row>
+    <row r="118" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A118" s="2" t="s">
         <v>48</v>
       </c>
@@ -10348,8 +13281,17 @@
       <c r="F118" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="119" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G118" t="s">
+        <v>543</v>
+      </c>
+      <c r="H118">
+        <v>10.5</v>
+      </c>
+      <c r="I118">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="119" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A119" s="2" t="s">
         <v>41</v>
       </c>
@@ -10368,8 +13310,17 @@
       <c r="F119" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="120" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G119" t="s">
+        <v>544</v>
+      </c>
+      <c r="H119">
+        <v>10.5</v>
+      </c>
+      <c r="I119">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="120" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A120" s="2" t="s">
         <v>41</v>
       </c>
@@ -10388,8 +13339,17 @@
       <c r="F120" s="2">
         <v>10</v>
       </c>
-    </row>
-    <row r="121" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G120" t="s">
+        <v>452</v>
+      </c>
+      <c r="H120">
+        <v>23</v>
+      </c>
+      <c r="I120">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="121" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A121" s="2" t="s">
         <v>46</v>
       </c>
@@ -10408,8 +13368,17 @@
       <c r="F121" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="122" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G121" t="s">
+        <v>545</v>
+      </c>
+      <c r="H121">
+        <v>8</v>
+      </c>
+      <c r="I121">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="122" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A122" s="2" t="s">
         <v>47</v>
       </c>
@@ -10428,8 +13397,17 @@
       <c r="F122" s="2">
         <v>4.5</v>
       </c>
-    </row>
-    <row r="123" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G122" t="s">
+        <v>546</v>
+      </c>
+      <c r="H122">
+        <v>10.5</v>
+      </c>
+      <c r="I122">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="123" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A123" s="2" t="s">
         <v>40</v>
       </c>
@@ -10448,8 +13426,17 @@
       <c r="F123" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="124" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G123" t="s">
+        <v>547</v>
+      </c>
+      <c r="H123">
+        <v>8</v>
+      </c>
+      <c r="I123">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="124" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A124" s="2" t="s">
         <v>40</v>
       </c>
@@ -10468,8 +13455,17 @@
       <c r="F124" s="2">
         <v>9.5</v>
       </c>
-    </row>
-    <row r="125" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G124" t="s">
+        <v>548</v>
+      </c>
+      <c r="H124">
+        <v>6.5</v>
+      </c>
+      <c r="I124">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="125" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A125" s="2" t="s">
         <v>40</v>
       </c>
@@ -10488,8 +13484,17 @@
       <c r="F125" s="2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="126" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G125" t="s">
+        <v>549</v>
+      </c>
+      <c r="H125">
+        <v>10.5</v>
+      </c>
+      <c r="I125">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="126" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A126" s="2" t="s">
         <v>39</v>
       </c>
@@ -10508,8 +13513,17 @@
       <c r="F126" s="2">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="127" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="G126" t="s">
+        <v>550</v>
+      </c>
+      <c r="H126">
+        <v>8</v>
+      </c>
+      <c r="I126">
+        <v>10.5</v>
+      </c>
+    </row>
+    <row r="127" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A127" s="2" t="s">
         <v>39</v>
       </c>
@@ -10527,6 +13541,15 @@
       </c>
       <c r="F127" s="2">
         <v>7.5</v>
+      </c>
+      <c r="G127" t="s">
+        <v>551</v>
+      </c>
+      <c r="H127">
+        <v>8</v>
+      </c>
+      <c r="I127">
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -14267,7 +17290,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B74112-5BD3-4ED0-B363-BA4B8ED30B88}">
   <dimension ref="A1:K67"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J11" sqref="J11"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
